--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24880" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="15320" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="story.csv" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>storyId</t>
   </si>
@@ -228,9 +228,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>等待点击</t>
-  </si>
-  <si>
     <t>设成黑色</t>
   </si>
   <si>
@@ -315,9 +312,6 @@
     <t>移除b</t>
   </si>
   <si>
-    <t>对话</t>
-  </si>
-  <si>
     <t>移动图片b到新的左下角</t>
   </si>
   <si>
@@ -354,52 +348,55 @@
     <t>等3秒</t>
   </si>
   <si>
-    <t>测试剧情，对话文字</t>
-  </si>
-  <si>
-    <t>增加对话选项</t>
-  </si>
-  <si>
-    <t>测试剧情，改变对话值</t>
-  </si>
-  <si>
-    <t>0;2;3</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>tempInt</t>
-  </si>
-  <si>
-    <t>测试剧情，获得船只</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>ship_name_feihong</t>
-  </si>
-  <si>
-    <t>78_2;84_4;1_1</t>
-  </si>
-  <si>
-    <t>npc入队剧情</t>
-  </si>
-  <si>
-    <t>npc入队剧情文字</t>
-  </si>
-  <si>
-    <t>npc</t>
-  </si>
-  <si>
-    <t>测试剧情，测试决斗</t>
-  </si>
-  <si>
-    <t>1;2</t>
-  </si>
-  <si>
-    <t>4;5</t>
+    <t>显示文字，库拉乌，\n你想给我看什么</t>
+  </si>
+  <si>
+    <t>对话（行了，行了。去了就明白了。）</t>
+  </si>
+  <si>
+    <t>对话（拉斐尔，你对海上的英雄有什么看法？）</t>
+  </si>
+  <si>
+    <t>对话（恩，被你这么一问......。）</t>
+  </si>
+  <si>
+    <t>对话（在说什么呀。恩利科王子、列恩公爵，真帅啊。）</t>
+  </si>
+  <si>
+    <t>对话（大海果然是男人梦想的舞台。）</t>
+  </si>
+  <si>
+    <t>对话（又来了。一般来说没有船怎么能出海呢？）</t>
+  </si>
+  <si>
+    <t>对话（一点理想都没有的家伙啊。男人该多谈谈理想。）</t>
+  </si>
+  <si>
+    <t>对话（到了）</t>
+  </si>
+  <si>
+    <t>对话（呀，来了啊....。）</t>
+  </si>
+  <si>
+    <t>对话（！！）</t>
+  </si>
+  <si>
+    <t>d图片移动到左下角</t>
+  </si>
+  <si>
+    <t>等待5秒</t>
+  </si>
+  <si>
+    <t>d图片移动到左上角</t>
+  </si>
+  <si>
+    <t>等待7秒</t>
+  </si>
+  <si>
+    <t>播放bgm</t>
+  </si>
+  <si>
+    <t>city_2.mp3</t>
   </si>
 </sst>
 </file>
@@ -492,8 +489,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -553,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +580,7 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -608,6 +608,7 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -937,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1000,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1023,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1046,13 +1047,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1069,13 +1070,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1115,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1138,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1161,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1184,13 +1185,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1207,13 +1208,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1230,13 +1231,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1253,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1276,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1299,7 +1300,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1322,13 +1323,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1345,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1368,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1391,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1414,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>2.5</v>
@@ -1437,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>1.25</v>
@@ -1460,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1483,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -1506,13 +1507,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C25">
-        <v>14</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1529,10 +1530,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1552,22 +1553,22 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1575,22 +1576,22 @@
         <v>1</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
         <v>37</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1598,19 +1599,19 @@
         <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1621,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1644,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1667,19 +1668,19 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1690,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1702,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1713,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -1722,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1736,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -1745,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1759,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -1771,7 +1772,7 @@
         <v>3</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1782,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1791,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1805,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1814,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1828,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1840,7 +1841,7 @@
         <v>3</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1851,19 +1852,19 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1874,19 +1875,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
         <v>2</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1897,19 +1898,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1920,19 +1921,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>37</v>
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1943,22 +1944,22 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C44">
-        <v>12</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1966,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1989,16 +1990,16 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s">
         <v>48</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2012,13 +2013,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2035,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2058,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2081,13 +2082,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2104,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -2127,42 +2128,42 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>47</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C53">
-        <v>16</v>
-      </c>
-      <c r="D53" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2170,185 +2171,61 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C54">
-        <v>12</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>47</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C55">
-        <v>16</v>
-      </c>
-      <c r="D55" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C56">
-        <v>17</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57">
-        <v>12</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>12</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>70</v>
-      </c>
-      <c r="E58" t="s">
-        <v>71</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59">
-        <v>12</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>14</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60">
-        <v>12</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>15</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>5</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61">
-        <v>17</v>
-      </c>
-      <c r="D61" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="15320" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="story.csv" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,7 @@
           <t xml:space="preserve">表示3号为数值，1：表示3号为变量
 17 特殊的逻辑，例如 parameter1：表示功能如ship 表示添加船只,parameter2表示船只编号，parameter3表示船只名称，parameter4表示船舱货物
   paramter1 为npc的时候， parameter2 = 1表示入队， parameter2 = 3表示离队， parameter 3 为npcId
+100：备注，不发生任何事情
 </t>
         </r>
       </text>
@@ -171,11 +172,11 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">当 command = 17的时候， 
+          <t>当 command = 17的时候， 
 ship 表示获得船只， 
 npc 表示，加入npc，
 duel表示决斗， param2:表示对战双方的npcId, param3表示胜负所跳转的剧情
-</t>
+money 表示金钱的变动，parameter2： 1得到，2 失去，3设定为， parame3，数值</t>
         </r>
       </text>
     </comment>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
   <si>
     <t>storyId</t>
   </si>
@@ -228,6 +229,9 @@
     <t>a</t>
   </si>
   <si>
+    <t>等待点击</t>
+  </si>
+  <si>
     <t>设成黑色</t>
   </si>
   <si>
@@ -276,9 +280,6 @@
     <t>放大图片b到2.5倍</t>
   </si>
   <si>
-    <t>显示文字</t>
-  </si>
-  <si>
     <t>等待6秒</t>
   </si>
   <si>
@@ -348,6 +349,12 @@
     <t>等3秒</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>npc</t>
+  </si>
+  <si>
     <t>显示文字，库拉乌，\n你想给我看什么</t>
   </si>
   <si>
@@ -397,13 +404,421 @@
   </si>
   <si>
     <t>city_2.mp3</t>
+  </si>
+  <si>
+    <t>备注：添加脚步声</t>
+  </si>
+  <si>
+    <t>显示文字，是船。。。。</t>
+  </si>
+  <si>
+    <t>显示图片a</t>
+  </si>
+  <si>
+    <t>CG_4.png</t>
+  </si>
+  <si>
+    <t>设置图片a透明</t>
+  </si>
+  <si>
+    <t>a透明正常3秒</t>
+  </si>
+  <si>
+    <t>显示文字，走吧……。</t>
+  </si>
+  <si>
+    <t>等待1秒</t>
+  </si>
+  <si>
+    <t>对话（嗯？）</t>
+  </si>
+  <si>
+    <t>对话（怎么了？吓了一跳吧！名字已经取好了，叫“卡鲁提拉号”，好吧！）</t>
+  </si>
+  <si>
+    <t>对话（找了一艘形同废物的船，我和@{npc:4}一起修好的。）</t>
+  </si>
+  <si>
+    <t>对话（哎呀，现在不行……存够了钱再去吧。）</t>
+  </si>
+  <si>
+    <t>隐藏图片a</t>
+  </si>
+  <si>
+    <t>移除a</t>
+  </si>
+  <si>
+    <t>Town_1.png</t>
+  </si>
+  <si>
+    <t>a透明正常1秒</t>
+  </si>
+  <si>
+    <t>对话（库拉乌迪也说过，出海吧！钱的事拜托弗里奥大叔就能解决了！）</t>
+  </si>
+  <si>
+    <t>对话（现在去找弗里奥大叔！！）</t>
+  </si>
+  <si>
+    <t>对话（喂！拉斐尔！）</t>
+  </si>
+  <si>
+    <t>对话（杰拿斯和库拉乌迪你们继续修理！拜托了！！）</t>
+  </si>
+  <si>
+    <t>对话（喂！等一下！拉斐尔！）</t>
+  </si>
+  <si>
+    <t>对话（哎呀，结果那家伙最想出海。）</t>
+  </si>
+  <si>
+    <t>对话（哈哈，传染上了库拉乌的毛病。一旦决定做什么就非马上动手不可。）</t>
+  </si>
+  <si>
+    <t>对话（那家伙本来就是那样。只是平时看不出来。修理得怎么样了？）</t>
+  </si>
+  <si>
+    <t>对话（基本上完全成了。结果几乎都是我做的……。）</t>
+  </si>
+  <si>
+    <t>对话（行了，不要斤斤计较。想得开才会快乐。）</t>
+  </si>
+  <si>
+    <t>对话（啊哈，是啊。那我们也去吗？弗里奥大叔那儿。）</t>
+  </si>
+  <si>
+    <t>对话（当然。拉斐尔还是希望我也跟着去，对吧。）</t>
+  </si>
+  <si>
+    <t>CG_5.png</t>
+  </si>
+  <si>
+    <t>Portrait_5.png</t>
+  </si>
+  <si>
+    <t>隐藏图片b</t>
+  </si>
+  <si>
+    <t>设置图片b透明</t>
+  </si>
+  <si>
+    <t>b透明正常1秒</t>
+  </si>
+  <si>
+    <t>移除d</t>
+  </si>
+  <si>
+    <t>缩小b弗里奥大叔</t>
+  </si>
+  <si>
+    <t>显示b弗里奥大叔</t>
+  </si>
+  <si>
+    <t>设置anchor</t>
+  </si>
+  <si>
+    <t>移动</t>
+  </si>
+  <si>
+    <t>对话（什么！？又借钱！库拉乌迪你这小子，岂有此理！想做什么用？）</t>
+  </si>
+  <si>
+    <t>对话（……。不要突然喊这么大声，大叔！）</t>
+  </si>
+  <si>
+    <t>对不起，给您添麻烦了。</t>
+  </si>
+  <si>
+    <t>啊，你是卡斯特路家的少爷吗？</t>
+  </si>
+  <si>
+    <t>失礼之处，请原谅。</t>
+  </si>
+  <si>
+    <t>我说过我已不像从前，对吧？而且我也说了以后会认真做，对吧？不要令色，借钱给我们吧！</t>
+  </si>
+  <si>
+    <t>我从没见过你认真工作，叫我如何相信你所说的？</t>
+  </si>
+  <si>
+    <t>嗯，平常的所作所为啊！</t>
+  </si>
+  <si>
+    <t>呜呜……。</t>
+  </si>
+  <si>
+    <t>求求您！！弗里奥先生！是我提出来的要求！！……这也不行吗？</t>
+  </si>
+  <si>
+    <t>嗯，因为是一大笔钱。即使是拉斐尔少爷求我……你父亲会说什么？</t>
+  </si>
+  <si>
+    <t>我绝对不想依靠我父亲。我一定会还您的！无论如何拜托您了！！</t>
+  </si>
+  <si>
+    <t>噢噢，令人佩服。是要自立啊。……但是，恩，我知道了你的决心……。</t>
+  </si>
+  <si>
+    <t>啊，是吗？我不求您了。喂，走吧。拉斐尔，杰拿斯。</t>
+  </si>
+  <si>
+    <t>喂喂，我知道了，别拉我。</t>
+  </si>
+  <si>
+    <t>……给您添麻烦了对不起。告辞了。</t>
+  </si>
+  <si>
+    <t>……</t>
+  </si>
+  <si>
+    <t>啊，虽然这么说，但你想怎么办呢？</t>
+  </si>
+  <si>
+    <t>拉斐尔，为什么你不求你父亲呢？</t>
+  </si>
+  <si>
+    <t>……父亲总是把我当孩子。他一定反对我上船。</t>
+  </si>
+  <si>
+    <t>现在不做点儿什么，永远无法改变他的观念！</t>
+  </si>
+  <si>
+    <t>恩，拉斐尔！好！有气概！男子汉应当这样！</t>
+  </si>
+  <si>
+    <t>那无关紧要，但最重要的东西还没有。光靠男子汉气概……。</t>
+  </si>
+  <si>
+    <t>不要说那些。唉，只能踏踏实实的做下去。</t>
+  </si>
+  <si>
+    <t>喂————</t>
+  </si>
+  <si>
+    <t>哎呀是弗里奥先生。什么事？</t>
+  </si>
+  <si>
+    <t>能追上你们，太好了。</t>
+  </si>
+  <si>
+    <t>什么事？</t>
+  </si>
+  <si>
+    <t>我想了很多……。</t>
+  </si>
+  <si>
+    <t>啊，真令人心急啊。快说，大叔。</t>
+  </si>
+  <si>
+    <t>是这样。……恩，拉斐尔，这你拿去吧。</t>
+  </si>
+  <si>
+    <t>！！这是！！</t>
+  </si>
+  <si>
+    <t>获得30000金币</t>
+  </si>
+  <si>
+    <t>备注：添加脚步声，大叔出现</t>
+  </si>
+  <si>
+    <t>脚步声</t>
+  </si>
+  <si>
+    <t>steps.wav</t>
+  </si>
+  <si>
+    <t>既然给了你，所以连利息在内要按期还我。</t>
+  </si>
+  <si>
+    <t>是，是！我一定努力！</t>
+  </si>
+  <si>
+    <t>但是，我还是担心资金的去向。因此我决定看守着。</t>
+  </si>
+  <si>
+    <t>？？</t>
+  </si>
+  <si>
+    <t>不明白吗？我是说我也要上船。</t>
+  </si>
+  <si>
+    <t>真的吗！？</t>
+  </si>
+  <si>
+    <t>噢，太好了太好了。能和老练的航海士一起出海，信心倍增。</t>
+  </si>
+  <si>
+    <t>别这么夸我，我会不好意思。……我有一段时间没有上船了。</t>
+  </si>
+  <si>
+    <t>恩，这老家伙真的可以吗？</t>
+  </si>
+  <si>
+    <t>请不要净说失礼的话……弗里奥先生也是一位有名的海员。</t>
+  </si>
+  <si>
+    <t>因此，拉斐尔，你是舰长。</t>
+  </si>
+  <si>
+    <t>我！？但是，船是杰拿斯和库拉乌迪……。</t>
+  </si>
+  <si>
+    <t>这钱是因为信任卡斯特路商会的总司令，信任拉斐尔·卡斯特路才借给你们的。负责人是你。</t>
+  </si>
+  <si>
+    <t>恩，卡斯特路商会！？总，总司令那么……。</t>
+  </si>
+  <si>
+    <t>你想在世界著名的航海者们活跃的海上扬名天下吧？必须要有这种活动干劲。</t>
+  </si>
+  <si>
+    <t>总之，拉斐尔·卡斯特路应该是这条船的舰长，也是舰队的总提督，又是卡斯特路商会的总司令。</t>
+  </si>
+  <si>
+    <t>还有什么事？如果任命库拉乌迪为总司令，发生了什么事故那你要一辈子为我干活了……。</t>
+  </si>
+  <si>
+    <t>可以吗？</t>
+  </si>
+  <si>
+    <t>那，那家伙真难对付！不行，总司令还是拉斐尔。对不对，杰拿斯！</t>
+  </si>
+  <si>
+    <t>恩，我也不适合担任总司令。</t>
+  </si>
+  <si>
+    <t>但，但是……。</t>
+  </si>
+  <si>
+    <t>没什么，你只要好好努力就行了。</t>
+  </si>
+  <si>
+    <t>明白了！我会的！</t>
+  </si>
+  <si>
+    <t>恩，那我就放心了。那钱就作为最初的周转资金使用吧。</t>
+  </si>
+  <si>
+    <t>谢谢！我们会小心使用！</t>
+  </si>
+  <si>
+    <t>太谢谢您了。</t>
+  </si>
+  <si>
+    <t>噢！大叔，你人真好啊！</t>
+  </si>
+  <si>
+    <t>胡说什么，年纪轻轻的自以为是。</t>
+  </si>
+  <si>
+    <t>老人家，干嘛这么冲！我不是在称赞你吗！</t>
+  </si>
+  <si>
+    <t>……好像不让你尝点苦头，不知道我的厉害。</t>
+  </si>
+  <si>
+    <t>噢？你敢吗？</t>
+  </si>
+  <si>
+    <t>嘻！嘻！我还不会输给你！</t>
+  </si>
+  <si>
+    <t>请住手！两位！</t>
+  </si>
+  <si>
+    <t>这家伙不用拳头揍他一次，难消我心中之气。</t>
+  </si>
+  <si>
+    <t>是吗？你想这段手指吗？</t>
+  </si>
+  <si>
+    <t>行了！这是舰长的命令！别打了！</t>
+  </si>
+  <si>
+    <t>好，既然舰长这么说的话！</t>
+  </si>
+  <si>
+    <t>既然舰长这么说的话。</t>
+  </si>
+  <si>
+    <t>啊，别学我说话！老头！</t>
+  </si>
+  <si>
+    <t>哼，谁学你？</t>
+  </si>
+  <si>
+    <t>……好了好了。</t>
+  </si>
+  <si>
+    <t>画面黑暗</t>
+  </si>
+  <si>
+    <t>回复a不透明</t>
+  </si>
+  <si>
+    <t>别管这傻瓜，如果这样决定了，准备工作很重要。航海所需的物品备齐了吗？</t>
+  </si>
+  <si>
+    <t>我们要不畏艰难，努力做下去。</t>
+  </si>
+  <si>
+    <t>是！多多指教！</t>
+  </si>
+  <si>
+    <t>呸，那老头，只不过知道一点航海相关知识，就把自己当做是拉斐尔的老师。</t>
+  </si>
+  <si>
+    <t>喂喂，不好胡说了，走吧。</t>
+  </si>
+  <si>
+    <t>杰拿斯加入</t>
+  </si>
+  <si>
+    <t>库拉乌迪·马奈乌斯成为伙伴！</t>
+  </si>
+  <si>
+    <t>弗里奥·埃涅科成为伙伴！</t>
+  </si>
+  <si>
+    <t>那么开始进行航海的必要准备吧。</t>
+  </si>
+  <si>
+    <t>跟弗里奥先生学准备的方法吗？还是自己进行出海的准备呢？</t>
+  </si>
+  <si>
+    <t>选项学学吧、自己也能做的</t>
+  </si>
+  <si>
+    <t>0;2</t>
+  </si>
+  <si>
+    <t>恩。那么开始准备吧。先去交易所吗？</t>
+  </si>
+  <si>
+    <t>在任何城市，出海前去交易所、酒馆、广场转转的好。</t>
+  </si>
+  <si>
+    <t>carpenter.wav</t>
+  </si>
+  <si>
+    <t>木匠声音</t>
+  </si>
+  <si>
+    <t>lafeier.wav</t>
+  </si>
+  <si>
+    <t>播放拉斐尔背景</t>
+  </si>
+  <si>
+    <t>Town_3.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,6 +886,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -489,7 +918,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -547,12 +976,280 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="323">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -581,6 +1278,139 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -609,6 +1439,139 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -938,15 +1901,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1001,7 +1965,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1024,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -1070,13 +2034,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1116,7 +2080,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -1139,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1162,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -1185,13 +2149,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1208,13 +2172,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1231,13 +2195,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1254,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -1277,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1300,7 +2264,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -1323,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1346,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -1369,13 +2333,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1392,7 +2356,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -1415,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>2.5</v>
@@ -1444,7 +2408,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>1.25</v>
@@ -1461,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1507,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1553,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1674,7 +2638,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1691,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33">
         <v>12</v>
@@ -1714,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C34">
         <v>12</v>
@@ -1737,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C35">
         <v>12</v>
@@ -1760,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>12</v>
@@ -1783,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>12</v>
@@ -1806,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C38">
         <v>12</v>
@@ -1829,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1852,19 +2816,19 @@
         <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1875,19 +2839,19 @@
         <v>1</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C41">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1898,19 +2862,19 @@
         <v>1</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>2</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1921,19 +2885,19 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1944,19 +2908,19 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1967,22 +2931,22 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>12</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1990,22 +2954,22 @@
         <v>1</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2013,16 +2977,16 @@
         <v>1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>47</v>
       </c>
-      <c r="E47">
-        <v>0</v>
+      <c r="E47" t="s">
+        <v>48</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2036,22 +3000,22 @@
         <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2059,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2082,19 +3046,19 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>47</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2105,19 +3069,19 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
-        <v>7</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
+        <v>47</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2128,22 +3092,22 @@
         <v>1</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C52">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2151,13 +3115,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>66</v>
+        <v>205</v>
       </c>
       <c r="C53">
-        <v>7</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>204</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2186,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>5</v>
@@ -2197,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -2205,27 +3169,3739 @@
       <c r="D55">
         <v>7</v>
       </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>12</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>14</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71">
+        <v>8</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C74">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>17</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>20</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>21</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>22</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>23</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>24</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>25</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>26</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>27</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>28</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
         <v>30</v>
       </c>
-      <c r="C56">
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>31</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>13</v>
       </c>
-      <c r="D56">
-        <v>12</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>101</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>102</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0.5</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>0.5</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107">
+        <v>0.95</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>206</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112">
+        <v>5</v>
+      </c>
+      <c r="F112">
+        <v>32</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>33</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>34</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>35</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>36</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>37</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+      <c r="F118">
+        <v>38</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>39</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>40</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121">
+        <v>41</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>42</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>43</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>44</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>3</v>
+      </c>
+      <c r="F125">
+        <v>45</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>4</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>46</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127">
+        <v>47</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <v>12</v>
+      </c>
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+      <c r="E128" s="2">
+        <v>5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>48</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>208</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>49</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>50</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141">
+        <v>51</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142">
+        <v>52</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>53</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>4</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>54</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>55</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>56</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>57</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>5</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>58</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152">
+        <v>12</v>
+      </c>
+      <c r="D152">
+        <v>4</v>
+      </c>
+      <c r="E152">
+        <v>4</v>
+      </c>
+      <c r="F152">
+        <v>59</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153">
+        <v>12</v>
+      </c>
+      <c r="D153">
+        <v>5</v>
+      </c>
+      <c r="E153">
+        <v>5</v>
+      </c>
+      <c r="F153">
+        <v>60</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>1</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154">
+        <v>12</v>
+      </c>
+      <c r="D154">
+        <v>3</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>61</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C155">
+        <v>12</v>
+      </c>
+      <c r="D155">
+        <v>5</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>62</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>1</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C156">
+        <v>12</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>63</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157">
+        <v>17</v>
+      </c>
+      <c r="D157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>30000</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158" t="s">
+        <v>147</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158">
+        <v>5</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158">
+        <v>64</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159">
+        <v>12</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>65</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>1</v>
+      </c>
+      <c r="B160" t="s">
+        <v>149</v>
+      </c>
+      <c r="C160">
+        <v>12</v>
+      </c>
+      <c r="D160">
+        <v>5</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>66</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161" t="s">
+        <v>150</v>
+      </c>
+      <c r="C161">
+        <v>12</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>67</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>151</v>
+      </c>
+      <c r="C162">
+        <v>12</v>
+      </c>
+      <c r="D162">
+        <v>5</v>
+      </c>
+      <c r="E162">
+        <v>5</v>
+      </c>
+      <c r="F162">
+        <v>68</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>1</v>
+      </c>
+      <c r="B163" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163">
+        <v>12</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163">
+        <v>69</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164">
+        <v>12</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>4</v>
+      </c>
+      <c r="F164">
+        <v>70</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
+        <v>154</v>
+      </c>
+      <c r="C165">
+        <v>12</v>
+      </c>
+      <c r="D165">
+        <v>5</v>
+      </c>
+      <c r="E165">
+        <v>5</v>
+      </c>
+      <c r="F165">
+        <v>71</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166">
+        <v>12</v>
+      </c>
+      <c r="D166">
+        <v>3</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>72</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167">
+        <v>12</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>73</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>74</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>75</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170">
+        <v>5</v>
+      </c>
+      <c r="E170">
+        <v>5</v>
+      </c>
+      <c r="F170">
+        <v>76</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
+        <v>160</v>
+      </c>
+      <c r="C171">
+        <v>12</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171">
+        <v>77</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
+        <v>161</v>
+      </c>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172">
+        <v>5</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>78</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173" t="s">
+        <v>162</v>
+      </c>
+      <c r="C173">
+        <v>12</v>
+      </c>
+      <c r="D173">
+        <v>5</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>79</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>163</v>
+      </c>
+      <c r="C174">
+        <v>12</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>80</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175" t="s">
+        <v>164</v>
+      </c>
+      <c r="C175">
+        <v>12</v>
+      </c>
+      <c r="D175">
+        <v>5</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>81</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>1</v>
+      </c>
+      <c r="B176" t="s">
+        <v>165</v>
+      </c>
+      <c r="C176">
+        <v>12</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>3</v>
+      </c>
+      <c r="F176">
+        <v>82</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="s">
+        <v>166</v>
+      </c>
+      <c r="C177">
+        <v>12</v>
+      </c>
+      <c r="D177">
+        <v>4</v>
+      </c>
+      <c r="E177">
+        <v>4</v>
+      </c>
+      <c r="F177">
+        <v>83</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>167</v>
+      </c>
+      <c r="C178">
+        <v>12</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178">
+        <v>84</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
+        <v>168</v>
+      </c>
+      <c r="C179">
+        <v>12</v>
+      </c>
+      <c r="D179">
+        <v>5</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>85</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>169</v>
+      </c>
+      <c r="C180">
+        <v>12</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180">
+        <v>86</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
+        <v>170</v>
+      </c>
+      <c r="C181">
+        <v>12</v>
+      </c>
+      <c r="D181">
+        <v>5</v>
+      </c>
+      <c r="E181">
+        <v>5</v>
+      </c>
+      <c r="F181">
+        <v>87</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>1</v>
+      </c>
+      <c r="B182" t="s">
+        <v>171</v>
+      </c>
+      <c r="C182">
+        <v>12</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>88</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>172</v>
+      </c>
+      <c r="C183">
+        <v>12</v>
+      </c>
+      <c r="D183">
+        <v>4</v>
+      </c>
+      <c r="E183">
+        <v>4</v>
+      </c>
+      <c r="F183">
+        <v>89</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>173</v>
+      </c>
+      <c r="C184">
+        <v>12</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+      <c r="E184">
+        <v>3</v>
+      </c>
+      <c r="F184">
+        <v>90</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185">
+        <v>12</v>
+      </c>
+      <c r="D185">
+        <v>5</v>
+      </c>
+      <c r="E185">
+        <v>5</v>
+      </c>
+      <c r="F185">
+        <v>91</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>175</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186">
+        <v>3</v>
+      </c>
+      <c r="E186">
+        <v>3</v>
+      </c>
+      <c r="F186">
+        <v>92</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187" t="s">
+        <v>176</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187">
+        <v>5</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>93</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="D188">
+        <v>3</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>94</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
+        <v>178</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189">
+        <v>5</v>
+      </c>
+      <c r="E189">
+        <v>5</v>
+      </c>
+      <c r="F189">
+        <v>95</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>179</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190">
+        <v>96</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191">
+        <v>1</v>
+      </c>
+      <c r="B191" t="s">
+        <v>180</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191">
+        <v>5</v>
+      </c>
+      <c r="E191">
+        <v>5</v>
+      </c>
+      <c r="F191">
+        <v>97</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192">
+        <v>1</v>
+      </c>
+      <c r="B192" t="s">
+        <v>181</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+      <c r="E192">
+        <v>3</v>
+      </c>
+      <c r="F192">
+        <v>98</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>182</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193">
+        <v>99</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
+        <v>183</v>
+      </c>
+      <c r="C194">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>3</v>
+      </c>
+      <c r="E194">
+        <v>3</v>
+      </c>
+      <c r="F194">
+        <v>100</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195">
+        <v>1</v>
+      </c>
+      <c r="B195" t="s">
+        <v>184</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>5</v>
+      </c>
+      <c r="E195">
+        <v>5</v>
+      </c>
+      <c r="F195">
+        <v>101</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196">
+        <v>1</v>
+      </c>
+      <c r="B196" t="s">
+        <v>185</v>
+      </c>
+      <c r="C196">
+        <v>12</v>
+      </c>
+      <c r="D196">
+        <v>3</v>
+      </c>
+      <c r="E196">
+        <v>3</v>
+      </c>
+      <c r="F196">
+        <v>102</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>5</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>103</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
+        <v>187</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>4</v>
+      </c>
+      <c r="E198">
+        <v>4</v>
+      </c>
+      <c r="F198">
+        <v>104</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199">
+        <v>1</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C199">
+        <v>100</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C200">
+        <v>5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>13</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C201">
+        <v>7</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202">
+        <v>1</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C203">
+        <v>7</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204">
+        <v>1</v>
+      </c>
+      <c r="B204" t="s">
+        <v>190</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>5</v>
+      </c>
+      <c r="E204">
+        <v>5</v>
+      </c>
+      <c r="F204">
+        <v>105</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205">
+        <v>1</v>
+      </c>
+      <c r="B205" t="s">
+        <v>191</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>5</v>
+      </c>
+      <c r="E205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <v>106</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>192</v>
+      </c>
+      <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>107</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207">
+        <v>1</v>
+      </c>
+      <c r="B207" t="s">
+        <v>193</v>
+      </c>
+      <c r="C207">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+      <c r="E207">
+        <v>3</v>
+      </c>
+      <c r="F207">
+        <v>108</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208">
+        <v>1</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208">
+        <v>10</v>
+      </c>
+      <c r="D208" t="s">
+        <v>146</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>194</v>
+      </c>
+      <c r="C209">
+        <v>12</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+      <c r="E209">
+        <v>4</v>
+      </c>
+      <c r="F209">
+        <v>109</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210">
+        <v>1</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C210">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>55</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211">
+        <v>1</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C211">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>55</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C212">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>55</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>5</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
+        <v>198</v>
+      </c>
+      <c r="C213">
+        <v>12</v>
+      </c>
+      <c r="D213">
+        <v>4</v>
+      </c>
+      <c r="E213">
+        <v>4</v>
+      </c>
+      <c r="F213">
+        <v>110</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214">
+        <v>1</v>
+      </c>
+      <c r="B214" t="s">
+        <v>199</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+      <c r="D214">
+        <v>4</v>
+      </c>
+      <c r="E214">
+        <v>4</v>
+      </c>
+      <c r="F214">
+        <v>111</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C215">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>112</v>
+      </c>
+      <c r="E215" t="s">
+        <v>201</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216" t="s">
+        <v>202</v>
+      </c>
+      <c r="C216">
+        <v>12</v>
+      </c>
+      <c r="D216">
+        <v>5</v>
+      </c>
+      <c r="E216">
+        <v>5</v>
+      </c>
+      <c r="F216">
+        <v>113</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
+        <v>203</v>
+      </c>
+      <c r="C217">
+        <v>12</v>
+      </c>
+      <c r="D217">
+        <v>5</v>
+      </c>
+      <c r="E217">
+        <v>5</v>
+      </c>
+      <c r="F217">
+        <v>114</v>
+      </c>
+      <c r="G217">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21980" windowHeight="14820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20680" windowHeight="19760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="story.csv" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,24 @@
           </rPr>
           <t xml:space="preserve">
 15 show DialogSelections: selectionsId; selectionStoryId
-16 change logica data: logic Id;(parameter2 0:= , 1:add 2:minus 3:multiply 4:devide &gt;4: self-definition); value or expression; parameter4 = 0</t>
+16 change logica data: logic Id;(parameter2 0:= , 1:add 2:minus 3:multiply 4:devide &gt;4: self-definition</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，-1：remove it</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>); value or expression; parameter4 = 0</t>
         </r>
         <r>
           <rPr>
@@ -137,6 +154,8 @@
           <t xml:space="preserve">表示3号为数值，1：表示3号为变量
 17 特殊的逻辑，例如 parameter1：表示功能如ship 表示添加船只,parameter2表示船只编号，parameter3表示船只名称，parameter4表示船舱货物
   paramter1 为npc的时候， parameter2 = 1表示入队， parameter2 = 3表示离队， parameter 3 为npcId
+18:决斗
+19 unlock/lock story, parameter1 0 unlock, 1 lock, parameter2 : storyId
 100：备注，不发生任何事情
 </t>
         </r>
@@ -185,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="211">
   <si>
     <t>storyId</t>
   </si>
@@ -812,6 +831,12 @@
   </si>
   <si>
     <t>Town_3.png</t>
+  </si>
+  <si>
+    <t>开启触发交易所剧情</t>
+  </si>
+  <si>
+    <t>交易品低价买入高价卖出，这是交易的基本常识。</t>
   </si>
 </sst>
 </file>
@@ -1901,11 +1926,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G217"/>
+  <dimension ref="A1:G219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D212" sqref="D212"/>
+      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5529,7 +5554,7 @@
       <c r="A158">
         <v>1</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C158">
@@ -5552,7 +5577,7 @@
       <c r="A159">
         <v>1</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="1" t="s">
         <v>148</v>
       </c>
       <c r="C159">
@@ -5575,7 +5600,7 @@
       <c r="A160">
         <v>1</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C160">
@@ -5598,7 +5623,7 @@
       <c r="A161">
         <v>1</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>150</v>
       </c>
       <c r="C161">
@@ -5621,7 +5646,7 @@
       <c r="A162">
         <v>1</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C162">
@@ -5644,7 +5669,7 @@
       <c r="A163">
         <v>1</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C163">
@@ -5667,7 +5692,7 @@
       <c r="A164">
         <v>1</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C164">
@@ -5690,7 +5715,7 @@
       <c r="A165">
         <v>1</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C165">
@@ -5713,7 +5738,7 @@
       <c r="A166">
         <v>1</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C166">
@@ -5736,7 +5761,7 @@
       <c r="A167">
         <v>1</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>156</v>
       </c>
       <c r="C167">
@@ -5759,7 +5784,7 @@
       <c r="A168">
         <v>1</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C168">
@@ -5782,7 +5807,7 @@
       <c r="A169">
         <v>1</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C169">
@@ -5805,7 +5830,7 @@
       <c r="A170">
         <v>1</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>159</v>
       </c>
       <c r="C170">
@@ -5828,7 +5853,7 @@
       <c r="A171">
         <v>1</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C171">
@@ -5851,7 +5876,7 @@
       <c r="A172">
         <v>1</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>161</v>
       </c>
       <c r="C172">
@@ -5874,7 +5899,7 @@
       <c r="A173">
         <v>1</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>162</v>
       </c>
       <c r="C173">
@@ -5897,7 +5922,7 @@
       <c r="A174">
         <v>1</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C174">
@@ -5920,7 +5945,7 @@
       <c r="A175">
         <v>1</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C175">
@@ -5943,7 +5968,7 @@
       <c r="A176">
         <v>1</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>165</v>
       </c>
       <c r="C176">
@@ -5966,7 +5991,7 @@
       <c r="A177">
         <v>1</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>166</v>
       </c>
       <c r="C177">
@@ -5989,7 +6014,7 @@
       <c r="A178">
         <v>1</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C178">
@@ -6012,7 +6037,7 @@
       <c r="A179">
         <v>1</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C179">
@@ -6035,7 +6060,7 @@
       <c r="A180">
         <v>1</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>169</v>
       </c>
       <c r="C180">
@@ -6058,7 +6083,7 @@
       <c r="A181">
         <v>1</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="1" t="s">
         <v>170</v>
       </c>
       <c r="C181">
@@ -6081,7 +6106,7 @@
       <c r="A182">
         <v>1</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>171</v>
       </c>
       <c r="C182">
@@ -6104,7 +6129,7 @@
       <c r="A183">
         <v>1</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>172</v>
       </c>
       <c r="C183">
@@ -6127,7 +6152,7 @@
       <c r="A184">
         <v>1</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C184">
@@ -6150,7 +6175,7 @@
       <c r="A185">
         <v>1</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>174</v>
       </c>
       <c r="C185">
@@ -6173,7 +6198,7 @@
       <c r="A186">
         <v>1</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>175</v>
       </c>
       <c r="C186">
@@ -6196,7 +6221,7 @@
       <c r="A187">
         <v>1</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>176</v>
       </c>
       <c r="C187">
@@ -6219,7 +6244,7 @@
       <c r="A188">
         <v>1</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>177</v>
       </c>
       <c r="C188">
@@ -6242,7 +6267,7 @@
       <c r="A189">
         <v>1</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C189">
@@ -6265,7 +6290,7 @@
       <c r="A190">
         <v>1</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="1" t="s">
         <v>179</v>
       </c>
       <c r="C190">
@@ -6288,7 +6313,7 @@
       <c r="A191">
         <v>1</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C191">
@@ -6311,7 +6336,7 @@
       <c r="A192">
         <v>1</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>181</v>
       </c>
       <c r="C192">
@@ -6334,7 +6359,7 @@
       <c r="A193">
         <v>1</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>182</v>
       </c>
       <c r="C193">
@@ -6357,7 +6382,7 @@
       <c r="A194">
         <v>1</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C194">
@@ -6380,7 +6405,7 @@
       <c r="A195">
         <v>1</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>184</v>
       </c>
       <c r="C195">
@@ -6403,7 +6428,7 @@
       <c r="A196">
         <v>1</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C196">
@@ -6426,7 +6451,7 @@
       <c r="A197">
         <v>1</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C197">
@@ -6449,7 +6474,7 @@
       <c r="A198">
         <v>1</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C198">
@@ -6587,7 +6612,7 @@
       <c r="A204">
         <v>1</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>190</v>
       </c>
       <c r="C204">
@@ -6610,7 +6635,7 @@
       <c r="A205">
         <v>1</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C205">
@@ -6633,7 +6658,7 @@
       <c r="A206">
         <v>1</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="1" t="s">
         <v>192</v>
       </c>
       <c r="C206">
@@ -6656,7 +6681,7 @@
       <c r="A207">
         <v>1</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C207">
@@ -6702,7 +6727,7 @@
       <c r="A209">
         <v>1</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>194</v>
       </c>
       <c r="C209">
@@ -6794,7 +6819,7 @@
       <c r="A213">
         <v>1</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>198</v>
       </c>
       <c r="C213">
@@ -6817,7 +6842,7 @@
       <c r="A214">
         <v>1</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>199</v>
       </c>
       <c r="C214">
@@ -6863,7 +6888,7 @@
       <c r="A216">
         <v>1</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>202</v>
       </c>
       <c r="C216">
@@ -6886,7 +6911,7 @@
       <c r="A217">
         <v>1</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>203</v>
       </c>
       <c r="C217">
@@ -6902,6 +6927,52 @@
         <v>114</v>
       </c>
       <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C218">
+        <v>19</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>210</v>
+      </c>
+      <c r="C219">
+        <v>12</v>
+      </c>
+      <c r="D219">
+        <v>5</v>
+      </c>
+      <c r="E219">
+        <v>5</v>
+      </c>
+      <c r="F219">
+        <v>115</v>
+      </c>
+      <c r="G219">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20680" windowHeight="19760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20680" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="story.csv" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
             <rFont val="Calibri"/>
           </rPr>
           <t xml:space="preserve">
-15 show DialogSelections: selectionsId; selectionStoryId
+15 show DialogSelections: selectionsId; selectionStoryId, whether remove All photo
 16 change logica data: logic Id;(parameter2 0:= , 1:add 2:minus 3:multiply 4:devide &gt;4: self-definition</t>
         </r>
         <r>
@@ -156,6 +156,8 @@
   paramter1 为npc的时候， parameter2 = 1表示入队， parameter2 = 3表示离队， parameter 3 为npcId
 18:决斗
 19 unlock/lock story, parameter1 0 unlock, 1 lock, parameter2 : storyId
+20 Go to story: parameter1:storyid
+21: goto parameter1: building No.
 100：备注，不发生任何事情
 </t>
         </r>
@@ -204,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
   <si>
     <t>storyId</t>
   </si>
@@ -809,9 +811,6 @@
     <t>选项学学吧、自己也能做的</t>
   </si>
   <si>
-    <t>0;2</t>
-  </si>
-  <si>
     <t>恩。那么开始准备吧。先去交易所吗？</t>
   </si>
   <si>
@@ -837,6 +836,225 @@
   </si>
   <si>
     <t>交易品低价买入高价卖出，这是交易的基本常识。</t>
+  </si>
+  <si>
+    <t>CG_6.png</t>
+  </si>
+  <si>
+    <t>如果能往返于地中海和非洲之间，可以很容易赚到钱。</t>
+  </si>
+  <si>
+    <t>还有，不要一下子就突然出远洋，应该在近海多看一看。</t>
+  </si>
+  <si>
+    <t>查看各城市的市场行情，可以瞄准机会赚大钱。</t>
+  </si>
+  <si>
+    <t>可以在里斯本购买藏红花或者杏仁到休达一带去卖。</t>
+  </si>
+  <si>
+    <t>最初，船只数量、可以存储货物的货仓，数量都很少。一次可以买卖的货物数量不多。</t>
+  </si>
+  <si>
+    <t>一个货仓可以装载的最大限量是买卖的一个单位。可以购买货物的数量要对应货仓数。</t>
+  </si>
+  <si>
+    <t>此外根据“占有率”不同，一次交易的数量也发生变化。当然“占有率越高，可以交易的数量越多。</t>
+  </si>
+  <si>
+    <t>市场占有率？;原来如此。</t>
+  </si>
+  <si>
+    <t>占有率……怎么才能增加呢？</t>
+  </si>
+  <si>
+    <t>如果占有率有空缺，王宫、交易所会分配给投资者。</t>
+  </si>
+  <si>
+    <t>哎呀，最初可以不理。等赚了一些钱，船只数量增加之后再说。总之，先进行交易试试看。</t>
+  </si>
+  <si>
+    <t>如果一切都好了，按“确定”交易完成。来吧，做做看。</t>
+  </si>
+  <si>
+    <t>开启离开交易所剧情</t>
+  </si>
+  <si>
+    <t>到现在都没问题了吧？接下来我要讲的就是关于水手，也就是我们的事情。</t>
+  </si>
+  <si>
+    <t>提督的重要工作之一就是“人事”。</t>
+  </si>
+  <si>
+    <t>为了让航海顺利进行，应该决定每个水手所担任的职务。这要配合甲板上的实务来进行人事分配。</t>
+  </si>
+  <si>
+    <t>首先，舰长是拉斐尔。没有舰长船就不能移动，它不能想去哪就去哪。</t>
+  </si>
+  <si>
+    <t>下一个是操帆手。根据风向调节帆的角度，需要操帆手人数同桅杆数相同。</t>
+  </si>
+  <si>
+    <t>接下来是操舵手，如果想赶快转舵，就变得很重要了。</t>
+  </si>
+  <si>
+    <t>海战时，操舵手技术熟练，就可以把船驾驶到有利的位置。</t>
+  </si>
+  <si>
+    <t>还有副官。没有他，船也可以正常移动。但如果有他，既可以和其他势力进行交涉，在航海中大家又不容易疲劳，是无名英雄。</t>
+  </si>
+  <si>
+    <t>如果有测量员可以进行“自动移动”，知道舰队所在的经纬度。是件非常重要的工作。</t>
+  </si>
+  <si>
+    <t>瞭望手的工作是在海上禀报其他船只的状况和城市的情况。</t>
+  </si>
+  <si>
+    <t>如果一般出海，安排这些就可以了。以后再进行各种研究。</t>
+  </si>
+  <si>
+    <t>请从下面的选单中选择“甲板”。打开甲板画面，可以变更水手担任的职务。</t>
+  </si>
+  <si>
+    <t>顺利招募水手的窍门是请他们喝酒，可以让他们了解提督的器量。</t>
+  </si>
+  <si>
+    <t>请他们喝酒，他们不会不高兴。哎呀，最初即使不这样做也能招募到所需的人数。</t>
+  </si>
+  <si>
+    <t>按“招募水手”，可以给我们招募多少人？</t>
+  </si>
+  <si>
+    <t>最后，就是分配水手了，但是如果只有一条船，那和“重视旗舰”没关系。</t>
+  </si>
+  <si>
+    <t>水手增加，可航行的天数就会减少，所以当雇佣人数超过必要人数时，需要注意。</t>
+  </si>
+  <si>
+    <t>来吧，做做看吧。</t>
+  </si>
+  <si>
+    <t>开启触发酒馆剧情</t>
+  </si>
+  <si>
+    <t>如果雇人就需要物资，也就是需要谁和粮食，在码头能得到。走吧。</t>
+  </si>
+  <si>
+    <t>码头的小伙子会主动帮你补给，所以很轻松。</t>
+  </si>
+  <si>
+    <t>钱不够的时候，你有多少钱就补给你多少。</t>
+  </si>
+  <si>
+    <t>拒绝补给的话，可以变更水和粮食的补给比例，但实际上使用的机会不多。</t>
+  </si>
+  <si>
+    <t>物资不足就发挥不了水手原有的能力。有好船也没用。要注意物资的剩余数量。</t>
+  </si>
+  <si>
+    <t>准备好了吗？</t>
+  </si>
+  <si>
+    <t>终于出海了。出海后该怎么办？</t>
+  </si>
+  <si>
+    <t>什么？就光想着出海，全没考虑到其他的事呀？</t>
+  </si>
+  <si>
+    <t>哈哈，没想到库拉乌迪说话这么有条理。</t>
+  </si>
+  <si>
+    <t>什么！那么难道我做事总是莽莽撞撞的吗！</t>
+  </si>
+  <si>
+    <t>哎呀，对不起。我感到吃惊的是库拉乌迪有自己的想法。那么说说您的好主意。</t>
+  </si>
+  <si>
+    <t>恩？啊，哎呀，恩……， 有了！！</t>
+  </si>
+  <si>
+    <t>攻打海盗怎么样！？我冲进敌船，吧那些家伙全打死！</t>
+  </si>
+  <si>
+    <t>……真是有雄心壮志呀。</t>
+  </si>
+  <si>
+    <t>要认真考虑。凭现在我们的实力，有多少条命也不够。</t>
+  </si>
+  <si>
+    <t>是啊。先到地中海、北海等地的港口看看。</t>
+  </si>
+  <si>
+    <t>如果转了几个港口，航海知识和交易知识就能自然掌握了。</t>
+  </si>
+  <si>
+    <t>是啊！伙伴也会增多！</t>
+  </si>
+  <si>
+    <t>恩。如果继续航海，光靠现在这些人有点让人不放心。</t>
+  </si>
+  <si>
+    <t>老头！为什么看着我说！</t>
+  </si>
+  <si>
+    <t>行了行了。确实还是人多比较好。</t>
+  </si>
+  <si>
+    <t>拉斐尔，你一定会遇到好朋友。</t>
+  </si>
+  <si>
+    <t>奥利弗……。</t>
+  </si>
+  <si>
+    <t>另外还需要资金。为了增加船只继续航海……。</t>
+  </si>
+  <si>
+    <t>怕什么，只要在各地反复进行交易，自然而然就会增加资金了。</t>
+  </si>
+  <si>
+    <t>如果不努力交易，资金只会越来越少。本钱都是我的，别开玩笑。</t>
+  </si>
+  <si>
+    <t>谢谢，奥利弗先生。我一定会努力赚钱还你。</t>
+  </si>
+  <si>
+    <t>哈哈哈，我在开玩笑。不要介意。那么，赶快走吧。</t>
+  </si>
+  <si>
+    <t>CG_7.png</t>
+  </si>
+  <si>
+    <t>开启离开酒馆剧情</t>
+  </si>
+  <si>
+    <t>TODO：增加切换到码头的图片</t>
+  </si>
+  <si>
+    <t>显示图片b</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>0;2_1</t>
+  </si>
+  <si>
+    <t>Goto story</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>0;1_1</t>
+  </si>
+  <si>
+    <t>奥！这可以交给你。喂，要加油啊。</t>
+  </si>
+  <si>
+    <t>0;0</t>
+  </si>
+  <si>
+    <t>到达港口</t>
   </si>
 </sst>
 </file>
@@ -943,8 +1161,102 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="323">
+  <cellStyleXfs count="417">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1274,7 +1586,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="323">
+  <cellStyles count="417">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1436,6 +1748,53 @@
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1597,6 +1956,53 @@
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1926,11 +2332,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G219"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D217" sqref="D217"/>
+      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2994,7 +3400,7 @@
         <v>11</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3140,13 +3546,13 @@
         <v>1</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -4474,13 +4880,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C111">
         <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -5035,7 +5441,7 @@
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -6875,10 +7281,10 @@
         <v>112</v>
       </c>
       <c r="E215" t="s">
-        <v>201</v>
-      </c>
-      <c r="F215">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="F215" t="s">
+        <v>281</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -6889,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C216">
         <v>12</v>
@@ -6912,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C217">
         <v>12</v>
@@ -6935,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C218">
         <v>19</v>
@@ -6955,24 +7361,2025 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>2</v>
-      </c>
-      <c r="B219" t="s">
+        <v>1</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C219">
+        <v>19</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>278</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C220">
+        <v>12</v>
+      </c>
+      <c r="D220">
+        <v>5</v>
+      </c>
+      <c r="E220">
+        <v>5</v>
+      </c>
+      <c r="F220">
+        <v>175</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
         <v>210</v>
       </c>
-      <c r="C219">
-        <v>12</v>
-      </c>
-      <c r="D219">
-        <v>5</v>
-      </c>
-      <c r="E219">
-        <v>5</v>
-      </c>
-      <c r="F219">
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C222">
+        <v>5</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C224">
+        <v>7</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C225">
+        <v>12</v>
+      </c>
+      <c r="D225">
+        <v>5</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225">
         <v>115</v>
       </c>
-      <c r="G219">
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C226">
+        <v>12</v>
+      </c>
+      <c r="D226">
+        <v>5</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226">
+        <v>116</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C227">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227">
+        <v>117</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C228">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228">
+        <v>118</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C229">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229">
+        <v>119</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C230">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230">
+        <v>120</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>121</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C232">
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232">
+        <v>122</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C233">
+        <v>15</v>
+      </c>
+      <c r="D233">
+        <v>123</v>
+      </c>
+      <c r="E233" t="s">
+        <v>276</v>
+      </c>
+      <c r="F233" t="s">
+        <v>281</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C234">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>124</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C235">
+        <v>12</v>
+      </c>
+      <c r="D235">
+        <v>5</v>
+      </c>
+      <c r="E235">
+        <v>5</v>
+      </c>
+      <c r="F235">
+        <v>125</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C236">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>5</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236">
+        <v>126</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>275</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>275</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C238">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
+        <v>127</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>275</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C239">
+        <v>19</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" t="s">
+        <v>207</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241">
+        <v>3</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C242">
+        <v>5</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C243">
+        <v>7</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C244">
+        <v>12</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+      <c r="E244">
+        <v>5</v>
+      </c>
+      <c r="F244">
+        <v>128</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C245">
+        <v>12</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>5</v>
+      </c>
+      <c r="F245">
+        <v>129</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C246">
+        <v>12</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
+        <v>130</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C247">
+        <v>12</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>131</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C248">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
+        <v>132</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>133</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>134</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" t="s">
+        <v>231</v>
+      </c>
+      <c r="C251">
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>135</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" t="s">
+        <v>232</v>
+      </c>
+      <c r="C252">
+        <v>12</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
+        <v>136</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
+        <v>233</v>
+      </c>
+      <c r="C253">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
+        <v>137</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
+        <v>234</v>
+      </c>
+      <c r="C254">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>5</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254">
+        <v>138</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>235</v>
+      </c>
+      <c r="C255">
+        <v>12</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>139</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256">
+        <v>4</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>271</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257">
+        <v>4</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C257">
+        <v>5</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258">
+        <v>4</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259">
+        <v>4</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C259">
+        <v>7</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260">
+        <v>4</v>
+      </c>
+      <c r="B260" t="s">
+        <v>236</v>
+      </c>
+      <c r="C260">
+        <v>12</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>5</v>
+      </c>
+      <c r="F260">
+        <v>141</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261">
+        <v>4</v>
+      </c>
+      <c r="B261" t="s">
+        <v>237</v>
+      </c>
+      <c r="C261">
+        <v>12</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+      <c r="E261">
+        <v>5</v>
+      </c>
+      <c r="F261">
+        <v>142</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262" t="s">
+        <v>238</v>
+      </c>
+      <c r="C262">
+        <v>12</v>
+      </c>
+      <c r="D262">
+        <v>5</v>
+      </c>
+      <c r="E262">
+        <v>5</v>
+      </c>
+      <c r="F262">
+        <v>143</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263">
+        <v>4</v>
+      </c>
+      <c r="B263" t="s">
+        <v>239</v>
+      </c>
+      <c r="C263">
+        <v>12</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>5</v>
+      </c>
+      <c r="F263">
+        <v>144</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264">
+        <v>4</v>
+      </c>
+      <c r="B264" t="s">
+        <v>240</v>
+      </c>
+      <c r="C264">
+        <v>12</v>
+      </c>
+      <c r="D264">
+        <v>5</v>
+      </c>
+      <c r="E264">
+        <v>5</v>
+      </c>
+      <c r="F264">
+        <v>145</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265">
+        <v>4</v>
+      </c>
+      <c r="B265" t="s">
+        <v>241</v>
+      </c>
+      <c r="C265">
+        <v>12</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+      <c r="E265">
+        <v>5</v>
+      </c>
+      <c r="F265">
+        <v>146</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266">
+        <v>4</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C266">
+        <v>19</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>5</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>207</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268">
+        <v>5</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270">
+        <v>5</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C270">
+        <v>7</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>243</v>
+      </c>
+      <c r="C271">
+        <v>12</v>
+      </c>
+      <c r="D271">
+        <v>5</v>
+      </c>
+      <c r="E271">
+        <v>5</v>
+      </c>
+      <c r="F271">
+        <v>147</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="s">
+        <v>87</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274">
+        <v>5</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C275">
+        <v>5</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276">
+        <v>5</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C276">
+        <v>7</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277">
+        <v>5</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C277">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>13</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C278">
+        <v>100</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>244</v>
+      </c>
+      <c r="C279">
+        <v>12</v>
+      </c>
+      <c r="D279">
+        <v>5</v>
+      </c>
+      <c r="E279">
+        <v>5</v>
+      </c>
+      <c r="F279">
+        <v>148</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>245</v>
+      </c>
+      <c r="C280">
+        <v>12</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280">
+        <v>5</v>
+      </c>
+      <c r="F280">
+        <v>149</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>246</v>
+      </c>
+      <c r="C281">
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+      <c r="F281">
+        <v>150</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>247</v>
+      </c>
+      <c r="C282">
+        <v>12</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282">
+        <v>151</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>248</v>
+      </c>
+      <c r="C283">
+        <v>12</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+      <c r="F283">
+        <v>152</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>249</v>
+      </c>
+      <c r="C284">
+        <v>12</v>
+      </c>
+      <c r="D284">
+        <v>2</v>
+      </c>
+      <c r="E284">
+        <v>2</v>
+      </c>
+      <c r="F284">
+        <v>153</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>250</v>
+      </c>
+      <c r="C285">
+        <v>12</v>
+      </c>
+      <c r="D285">
+        <v>3</v>
+      </c>
+      <c r="E285">
+        <v>3</v>
+      </c>
+      <c r="F285">
+        <v>154</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>251</v>
+      </c>
+      <c r="C286">
+        <v>12</v>
+      </c>
+      <c r="D286">
+        <v>4</v>
+      </c>
+      <c r="E286">
+        <v>4</v>
+      </c>
+      <c r="F286">
+        <v>155</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>252</v>
+      </c>
+      <c r="C287">
+        <v>12</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+      <c r="F287">
+        <v>156</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>253</v>
+      </c>
+      <c r="C288">
+        <v>12</v>
+      </c>
+      <c r="D288">
+        <v>4</v>
+      </c>
+      <c r="E288">
+        <v>4</v>
+      </c>
+      <c r="F288">
+        <v>157</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>254</v>
+      </c>
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289">
+        <v>158</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>255</v>
+      </c>
+      <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>3</v>
+      </c>
+      <c r="F290">
+        <v>159</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
+        <v>256</v>
+      </c>
+      <c r="C291">
+        <v>12</v>
+      </c>
+      <c r="D291">
+        <v>4</v>
+      </c>
+      <c r="E291">
+        <v>4</v>
+      </c>
+      <c r="F291">
+        <v>160</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>257</v>
+      </c>
+      <c r="C292">
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>161</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>258</v>
+      </c>
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
+      <c r="E293">
+        <v>5</v>
+      </c>
+      <c r="F293">
+        <v>162</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
+        <v>259</v>
+      </c>
+      <c r="C294">
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>5</v>
+      </c>
+      <c r="E294">
+        <v>5</v>
+      </c>
+      <c r="F294">
+        <v>163</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
+        <v>260</v>
+      </c>
+      <c r="C295">
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>4</v>
+      </c>
+      <c r="E295">
+        <v>4</v>
+      </c>
+      <c r="F295">
+        <v>164</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>261</v>
+      </c>
+      <c r="C296">
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="F296">
+        <v>165</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>262</v>
+      </c>
+      <c r="C297">
+        <v>12</v>
+      </c>
+      <c r="D297">
+        <v>2</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>166</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
+        <v>263</v>
+      </c>
+      <c r="C298">
+        <v>12</v>
+      </c>
+      <c r="D298">
+        <v>4</v>
+      </c>
+      <c r="E298">
+        <v>4</v>
+      </c>
+      <c r="F298">
+        <v>167</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>264</v>
+      </c>
+      <c r="C299">
+        <v>12</v>
+      </c>
+      <c r="D299">
+        <v>5</v>
+      </c>
+      <c r="E299">
+        <v>5</v>
+      </c>
+      <c r="F299">
+        <v>168</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>265</v>
+      </c>
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300">
+        <v>2</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>169</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>266</v>
+      </c>
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301">
+        <v>4</v>
+      </c>
+      <c r="E301">
+        <v>4</v>
+      </c>
+      <c r="F301">
+        <v>170</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>267</v>
+      </c>
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>5</v>
+      </c>
+      <c r="E302">
+        <v>5</v>
+      </c>
+      <c r="F302">
+        <v>171</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
+        <v>268</v>
+      </c>
+      <c r="C303">
+        <v>12</v>
+      </c>
+      <c r="D303">
+        <v>5</v>
+      </c>
+      <c r="E303">
+        <v>5</v>
+      </c>
+      <c r="F303">
+        <v>172</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>269</v>
+      </c>
+      <c r="C304">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>2</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304">
+        <v>173</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
+        <v>270</v>
+      </c>
+      <c r="C305">
+        <v>12</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305">
+        <v>5</v>
+      </c>
+      <c r="F305">
+        <v>174</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C306">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>7</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>0</v>
+      </c>
+      <c r="G306">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20680" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="story.csv" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="285">
   <si>
     <t>storyId</t>
   </si>
@@ -1055,6 +1055,12 @@
   </si>
   <si>
     <t>到达港口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获得 船只 </t>
+  </si>
+  <si>
+    <t>ship</t>
   </si>
 </sst>
 </file>
@@ -1067,6 +1073,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2332,11 +2339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G306"/>
+  <dimension ref="A1:G307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F306" sqref="F306"/>
+      <pane ySplit="2" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7272,19 +7279,19 @@
         <v>1</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="C215">
-        <v>15</v>
-      </c>
-      <c r="D215">
-        <v>112</v>
-      </c>
-      <c r="E215" t="s">
-        <v>279</v>
-      </c>
-      <c r="F215" t="s">
-        <v>281</v>
+        <v>17</v>
+      </c>
+      <c r="D215" t="s">
+        <v>284</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
       </c>
       <c r="G215">
         <v>0</v>
@@ -7295,19 +7302,19 @@
         <v>1</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C216">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D216">
-        <v>5</v>
-      </c>
-      <c r="E216">
-        <v>5</v>
-      </c>
-      <c r="F216">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="E216" t="s">
+        <v>279</v>
+      </c>
+      <c r="F216" t="s">
+        <v>281</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -7318,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C217">
         <v>12</v>
@@ -7330,7 +7337,7 @@
         <v>5</v>
       </c>
       <c r="F217">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -7341,19 +7348,19 @@
         <v>1</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C218">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E218">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -7364,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C219">
         <v>19</v>
@@ -7373,59 +7380,59 @@
         <v>0</v>
       </c>
       <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220">
+        <v>19</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
         <v>4</v>
       </c>
-      <c r="F219">
-        <v>0</v>
-      </c>
-      <c r="G219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" t="s">
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
         <v>278</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C220">
-        <v>12</v>
-      </c>
-      <c r="D220">
-        <v>5</v>
-      </c>
-      <c r="E220">
-        <v>5</v>
-      </c>
-      <c r="F220">
+      <c r="C221">
+        <v>12</v>
+      </c>
+      <c r="D221">
+        <v>5</v>
+      </c>
+      <c r="E221">
+        <v>5</v>
+      </c>
+      <c r="F221">
         <v>175</v>
       </c>
-      <c r="G220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221">
-        <v>2</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C221">
-        <v>1</v>
-      </c>
-      <c r="D221" t="s">
-        <v>13</v>
-      </c>
-      <c r="E221" t="s">
-        <v>210</v>
-      </c>
-      <c r="F221">
-        <v>0</v>
-      </c>
       <c r="G221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7433,22 +7440,22 @@
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C222">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D222" t="s">
         <v>13</v>
       </c>
-      <c r="E222">
-        <v>0</v>
+      <c r="E222" t="s">
+        <v>210</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7456,7 +7463,7 @@
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -7465,10 +7472,10 @@
         <v>13</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -7479,19 +7486,19 @@
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="C224">
-        <v>7</v>
-      </c>
-      <c r="D224">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>0</v>
@@ -7502,19 +7509,19 @@
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="C225">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E225">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -7525,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C226">
         <v>12</v>
@@ -7537,7 +7544,7 @@
         <v>5</v>
       </c>
       <c r="F226">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -7548,7 +7555,7 @@
         <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C227">
         <v>12</v>
@@ -7560,7 +7567,7 @@
         <v>5</v>
       </c>
       <c r="F227">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -7571,7 +7578,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C228">
         <v>12</v>
@@ -7583,7 +7590,7 @@
         <v>5</v>
       </c>
       <c r="F228">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -7594,7 +7601,7 @@
         <v>2</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C229">
         <v>12</v>
@@ -7606,7 +7613,7 @@
         <v>5</v>
       </c>
       <c r="F229">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -7617,7 +7624,7 @@
         <v>2</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C230">
         <v>12</v>
@@ -7629,7 +7636,7 @@
         <v>5</v>
       </c>
       <c r="F230">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -7640,7 +7647,7 @@
         <v>2</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231">
         <v>12</v>
@@ -7652,7 +7659,7 @@
         <v>5</v>
       </c>
       <c r="F231">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7663,7 +7670,7 @@
         <v>2</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C232">
         <v>12</v>
@@ -7675,7 +7682,7 @@
         <v>5</v>
       </c>
       <c r="F232">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -7686,19 +7693,19 @@
         <v>2</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C233">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D233">
-        <v>123</v>
-      </c>
-      <c r="E233" t="s">
-        <v>276</v>
-      </c>
-      <c r="F233" t="s">
-        <v>281</v>
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
+        <v>122</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7709,19 +7716,19 @@
         <v>2</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C234">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D234">
-        <v>2</v>
-      </c>
-      <c r="E234">
-        <v>2</v>
-      </c>
-      <c r="F234">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="E234" t="s">
+        <v>276</v>
+      </c>
+      <c r="F234" t="s">
+        <v>281</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -7732,19 +7739,19 @@
         <v>2</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C235">
         <v>12</v>
       </c>
       <c r="D235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F235">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7755,7 +7762,7 @@
         <v>2</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C236">
         <v>12</v>
@@ -7767,7 +7774,7 @@
         <v>5</v>
       </c>
       <c r="F236">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7778,42 +7785,42 @@
         <v>2</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C237">
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237">
+        <v>126</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C237">
+      <c r="C238">
         <v>20</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>275</v>
       </c>
-      <c r="E237">
-        <v>0</v>
-      </c>
-      <c r="F237">
-        <v>0</v>
-      </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" t="s">
-        <v>275</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C238">
-        <v>12</v>
-      </c>
-      <c r="D238">
-        <v>5</v>
-      </c>
       <c r="E238">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F238">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7824,45 +7831,45 @@
         <v>275</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239">
+        <v>12</v>
+      </c>
+      <c r="D239">
+        <v>5</v>
+      </c>
+      <c r="E239">
+        <v>5</v>
+      </c>
+      <c r="F239">
+        <v>127</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>275</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C239">
+      <c r="C240">
         <v>19</v>
       </c>
-      <c r="D239">
-        <v>0</v>
-      </c>
-      <c r="E239">
-        <v>3</v>
-      </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240">
-        <v>3</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" t="s">
-        <v>207</v>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
       </c>
       <c r="F240">
         <v>0</v>
       </c>
       <c r="G240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7870,22 +7877,22 @@
         <v>3</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C241">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D241" t="s">
         <v>13</v>
       </c>
-      <c r="E241">
-        <v>0</v>
+      <c r="E241" t="s">
+        <v>207</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7893,7 +7900,7 @@
         <v>3</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C242">
         <v>5</v>
@@ -7902,10 +7909,10 @@
         <v>13</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7916,19 +7923,19 @@
         <v>3</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C243">
-        <v>7</v>
-      </c>
-      <c r="D243">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7939,19 +7946,19 @@
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="C244">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7962,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C245">
         <v>12</v>
@@ -7974,7 +7981,7 @@
         <v>5</v>
       </c>
       <c r="F245">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7985,7 +7992,7 @@
         <v>3</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246">
         <v>12</v>
@@ -7997,7 +8004,7 @@
         <v>5</v>
       </c>
       <c r="F246">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -8008,7 +8015,7 @@
         <v>3</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247">
         <v>12</v>
@@ -8020,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="F247">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -8031,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C248">
         <v>12</v>
@@ -8043,7 +8050,7 @@
         <v>5</v>
       </c>
       <c r="F248">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -8054,7 +8061,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C249">
         <v>12</v>
@@ -8066,7 +8073,7 @@
         <v>5</v>
       </c>
       <c r="F249">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -8077,7 +8084,7 @@
         <v>3</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C250">
         <v>12</v>
@@ -8089,7 +8096,7 @@
         <v>5</v>
       </c>
       <c r="F250">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -8099,8 +8106,8 @@
       <c r="A251">
         <v>3</v>
       </c>
-      <c r="B251" t="s">
-        <v>231</v>
+      <c r="B251" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="C251">
         <v>12</v>
@@ -8112,7 +8119,7 @@
         <v>5</v>
       </c>
       <c r="F251">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -8123,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="B252" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C252">
         <v>12</v>
@@ -8135,7 +8142,7 @@
         <v>5</v>
       </c>
       <c r="F252">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -8146,7 +8153,7 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C253">
         <v>12</v>
@@ -8158,7 +8165,7 @@
         <v>5</v>
       </c>
       <c r="F253">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -8169,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="B254" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C254">
         <v>12</v>
@@ -8181,7 +8188,7 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -8192,19 +8199,19 @@
         <v>3</v>
       </c>
       <c r="B255" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C255">
         <v>12</v>
       </c>
       <c r="D255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F255">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -8212,25 +8219,25 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
-        <v>4</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
+        <v>235</v>
       </c>
       <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256" t="s">
-        <v>13</v>
-      </c>
-      <c r="E256" t="s">
-        <v>271</v>
+        <v>12</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -8238,22 +8245,22 @@
         <v>4</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C257">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D257" t="s">
         <v>13</v>
       </c>
-      <c r="E257">
-        <v>0</v>
+      <c r="E257" t="s">
+        <v>271</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -8261,7 +8268,7 @@
         <v>4</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C258">
         <v>5</v>
@@ -8270,10 +8277,10 @@
         <v>13</v>
       </c>
       <c r="E258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -8284,19 +8291,19 @@
         <v>4</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C259">
-        <v>7</v>
-      </c>
-      <c r="D259">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -8306,20 +8313,20 @@
       <c r="A260">
         <v>4</v>
       </c>
-      <c r="B260" t="s">
-        <v>236</v>
+      <c r="B260" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C260">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D260">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E260">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F260">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G260">
         <v>0</v>
@@ -8330,7 +8337,7 @@
         <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C261">
         <v>12</v>
@@ -8342,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="F261">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G261">
         <v>0</v>
@@ -8353,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C262">
         <v>12</v>
@@ -8365,7 +8372,7 @@
         <v>5</v>
       </c>
       <c r="F262">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -8376,7 +8383,7 @@
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C263">
         <v>12</v>
@@ -8388,7 +8395,7 @@
         <v>5</v>
       </c>
       <c r="F263">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -8399,7 +8406,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C264">
         <v>12</v>
@@ -8411,7 +8418,7 @@
         <v>5</v>
       </c>
       <c r="F264">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G264">
         <v>0</v>
@@ -8422,7 +8429,7 @@
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C265">
         <v>12</v>
@@ -8434,7 +8441,7 @@
         <v>5</v>
       </c>
       <c r="F265">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G265">
         <v>0</v>
@@ -8444,20 +8451,20 @@
       <c r="A266">
         <v>4</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>272</v>
+      <c r="B266" t="s">
+        <v>241</v>
       </c>
       <c r="C266">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D266">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E266">
         <v>5</v>
       </c>
       <c r="F266">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="G266">
         <v>0</v>
@@ -8465,25 +8472,25 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="C267">
-        <v>1</v>
-      </c>
-      <c r="D267" t="s">
-        <v>13</v>
-      </c>
-      <c r="E267" t="s">
-        <v>207</v>
+        <v>19</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8491,22 +8498,22 @@
         <v>5</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C268">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D268" t="s">
         <v>13</v>
       </c>
-      <c r="E268">
-        <v>0</v>
+      <c r="E268" t="s">
+        <v>207</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8514,7 +8521,7 @@
         <v>5</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C269">
         <v>5</v>
@@ -8523,10 +8530,10 @@
         <v>13</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -8537,19 +8544,19 @@
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C270">
-        <v>7</v>
-      </c>
-      <c r="D270">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F270">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270">
         <v>0</v>
@@ -8559,20 +8566,20 @@
       <c r="A271">
         <v>5</v>
       </c>
-      <c r="B271" t="s">
-        <v>243</v>
+      <c r="B271" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C271">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D271">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="G271">
         <v>0</v>
@@ -8582,20 +8589,20 @@
       <c r="A272">
         <v>5</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>88</v>
+      <c r="B272" t="s">
+        <v>243</v>
       </c>
       <c r="C272">
-        <v>5</v>
-      </c>
-      <c r="D272" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="G272">
         <v>0</v>
@@ -8606,22 +8613,22 @@
         <v>5</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>274</v>
+        <v>88</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D273" t="s">
-        <v>20</v>
-      </c>
-      <c r="E273" t="s">
-        <v>87</v>
+        <v>13</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8629,22 +8636,22 @@
         <v>5</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="C274">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D274" t="s">
         <v>20</v>
       </c>
-      <c r="E274">
-        <v>0</v>
+      <c r="E274" t="s">
+        <v>87</v>
       </c>
       <c r="F274">
         <v>0</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8652,7 +8659,7 @@
         <v>5</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -8661,10 +8668,10 @@
         <v>20</v>
       </c>
       <c r="E275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275">
         <v>0</v>
@@ -8675,19 +8682,19 @@
         <v>5</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="C276">
-        <v>7</v>
-      </c>
-      <c r="D276">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
+        <v>20</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276">
         <v>0</v>
@@ -8698,13 +8705,13 @@
         <v>5</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C277">
-        <v>6</v>
-      </c>
-      <c r="D277" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
       </c>
       <c r="E277">
         <v>0</v>
@@ -8721,13 +8728,13 @@
         <v>5</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="C278">
-        <v>100</v>
-      </c>
-      <c r="D278">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>13</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -8743,20 +8750,20 @@
       <c r="A279">
         <v>5</v>
       </c>
-      <c r="B279" t="s">
-        <v>244</v>
+      <c r="B279" s="1" t="s">
+        <v>273</v>
       </c>
       <c r="C279">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D279">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E279">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F279">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="G279">
         <v>0</v>
@@ -8767,7 +8774,7 @@
         <v>5</v>
       </c>
       <c r="B280" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C280">
         <v>12</v>
@@ -8779,7 +8786,7 @@
         <v>5</v>
       </c>
       <c r="F280">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G280">
         <v>0</v>
@@ -8790,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="B281" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C281">
         <v>12</v>
@@ -8802,7 +8809,7 @@
         <v>5</v>
       </c>
       <c r="F281">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -8813,7 +8820,7 @@
         <v>5</v>
       </c>
       <c r="B282" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C282">
         <v>12</v>
@@ -8825,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="F282">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G282">
         <v>0</v>
@@ -8836,7 +8843,7 @@
         <v>5</v>
       </c>
       <c r="B283" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C283">
         <v>12</v>
@@ -8848,7 +8855,7 @@
         <v>5</v>
       </c>
       <c r="F283">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G283">
         <v>0</v>
@@ -8859,19 +8866,19 @@
         <v>5</v>
       </c>
       <c r="B284" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C284">
         <v>12</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E284">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F284">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G284">
         <v>0</v>
@@ -8882,19 +8889,19 @@
         <v>5</v>
       </c>
       <c r="B285" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C285">
         <v>12</v>
       </c>
       <c r="D285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F285">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G285">
         <v>0</v>
@@ -8905,19 +8912,19 @@
         <v>5</v>
       </c>
       <c r="B286" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C286">
         <v>12</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F286">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G286">
         <v>0</v>
@@ -8928,19 +8935,19 @@
         <v>5</v>
       </c>
       <c r="B287" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C287">
         <v>12</v>
       </c>
       <c r="D287">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E287">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F287">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -8951,19 +8958,19 @@
         <v>5</v>
       </c>
       <c r="B288" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C288">
         <v>12</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F288">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -8974,19 +8981,19 @@
         <v>5</v>
       </c>
       <c r="B289" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C289">
         <v>12</v>
       </c>
       <c r="D289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F289">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -8997,7 +9004,7 @@
         <v>5</v>
       </c>
       <c r="B290" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C290">
         <v>12</v>
@@ -9009,7 +9016,7 @@
         <v>3</v>
       </c>
       <c r="F290">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -9020,19 +9027,19 @@
         <v>5</v>
       </c>
       <c r="B291" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C291">
         <v>12</v>
       </c>
       <c r="D291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E291">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F291">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -9043,19 +9050,19 @@
         <v>5</v>
       </c>
       <c r="B292" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C292">
         <v>12</v>
       </c>
       <c r="D292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E292">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F292">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -9066,19 +9073,19 @@
         <v>5</v>
       </c>
       <c r="B293" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C293">
         <v>12</v>
       </c>
       <c r="D293">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E293">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F293">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -9089,7 +9096,7 @@
         <v>5</v>
       </c>
       <c r="B294" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C294">
         <v>12</v>
@@ -9101,7 +9108,7 @@
         <v>5</v>
       </c>
       <c r="F294">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -9112,19 +9119,19 @@
         <v>5</v>
       </c>
       <c r="B295" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C295">
         <v>12</v>
       </c>
       <c r="D295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F295">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -9135,19 +9142,19 @@
         <v>5</v>
       </c>
       <c r="B296" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C296">
         <v>12</v>
       </c>
       <c r="D296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F296">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -9158,19 +9165,19 @@
         <v>5</v>
       </c>
       <c r="B297" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C297">
         <v>12</v>
       </c>
       <c r="D297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E297">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F297">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -9181,19 +9188,19 @@
         <v>5</v>
       </c>
       <c r="B298" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C298">
         <v>12</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E298">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F298">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -9204,19 +9211,19 @@
         <v>5</v>
       </c>
       <c r="B299" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C299">
         <v>12</v>
       </c>
       <c r="D299">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E299">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F299">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -9227,19 +9234,19 @@
         <v>5</v>
       </c>
       <c r="B300" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C300">
         <v>12</v>
       </c>
       <c r="D300">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F300">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -9250,19 +9257,19 @@
         <v>5</v>
       </c>
       <c r="B301" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C301">
         <v>12</v>
       </c>
       <c r="D301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F301">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -9273,19 +9280,19 @@
         <v>5</v>
       </c>
       <c r="B302" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C302">
         <v>12</v>
       </c>
       <c r="D302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E302">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F302">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -9296,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C303">
         <v>12</v>
@@ -9308,7 +9315,7 @@
         <v>5</v>
       </c>
       <c r="F303">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -9319,19 +9326,19 @@
         <v>5</v>
       </c>
       <c r="B304" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C304">
         <v>12</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E304">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F304">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -9342,19 +9349,19 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C305">
         <v>12</v>
       </c>
       <c r="D305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E305">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F305">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -9364,22 +9371,45 @@
       <c r="A306">
         <v>5</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="B306" t="s">
+        <v>270</v>
+      </c>
+      <c r="C306">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>5</v>
+      </c>
+      <c r="E306">
+        <v>5</v>
+      </c>
+      <c r="F306">
+        <v>174</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C306">
+      <c r="C307">
         <v>21</v>
       </c>
-      <c r="D306">
+      <c r="D307">
         <v>7</v>
       </c>
-      <c r="E306">
-        <v>0</v>
-      </c>
-      <c r="F306">
-        <v>0</v>
-      </c>
-      <c r="G306">
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
         <v>0</v>
       </c>
     </row>

--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yujiel/Dropbox (Personal)/Code/gitCode/SalingGame/DataSource/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
@@ -11,6 +16,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -206,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="286">
   <si>
     <t>storyId</t>
   </si>
@@ -1061,6 +1069,9 @@
   </si>
   <si>
     <t>ship</t>
+  </si>
+  <si>
+    <t>备注：交易所 介绍</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1084,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2014,6 +2024,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2339,20 +2354,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G307"/>
+  <dimension ref="A1:G308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B212" sqref="B212"/>
+      <pane ySplit="2" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2398,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2421,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2444,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2467,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2490,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2513,7 +2528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2559,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2582,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2605,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2651,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2674,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2697,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2720,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2743,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2766,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2789,7 +2804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2812,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2858,7 +2873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2904,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2927,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2950,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3019,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3042,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3065,7 +3080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3088,7 +3103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3111,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3134,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3180,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3203,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3226,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3249,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3272,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3295,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3318,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3341,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3364,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3387,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3410,7 +3425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3433,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3456,7 +3471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3479,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3502,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3525,7 +3540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3548,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3571,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3594,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3617,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3640,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3663,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3709,7 +3724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3732,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3755,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3778,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3801,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3847,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3870,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3939,7 +3954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3985,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4008,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4031,7 +4046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4054,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4077,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4100,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4123,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4146,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4169,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4215,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4238,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4261,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4307,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4330,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4353,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4399,7 +4414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4422,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4445,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4468,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4491,7 +4506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4514,7 +4529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4537,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4583,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4606,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4629,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4652,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4675,7 +4690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4698,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4721,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4744,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4767,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4790,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4813,7 +4828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4836,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4859,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4882,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4905,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4928,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4951,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4974,7 +4989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4997,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -5020,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -5043,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -5066,7 +5081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -5089,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -5112,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -5135,7 +5150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -5158,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -5181,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -5204,7 +5219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -5227,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -5273,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -5296,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -5319,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -5342,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -5365,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -5388,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5411,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -5434,7 +5449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5457,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -5480,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5526,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5549,7 +5564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5572,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5595,7 +5610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5618,7 +5633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5641,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5664,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5687,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5710,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5733,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5756,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5779,7 +5794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5802,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5825,7 +5840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5848,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5871,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5894,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5917,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5940,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5963,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5986,7 +6001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -6009,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -6032,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -6055,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -6078,7 +6093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -6101,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -6124,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -6147,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -6170,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -6193,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6239,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6262,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6308,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6331,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6354,7 +6369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6377,7 +6392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6400,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6423,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6446,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6469,7 +6484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -6492,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6515,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6538,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6561,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6584,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6607,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6630,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6653,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6676,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6699,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6722,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6745,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6768,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6791,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6814,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6837,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6860,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6883,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6906,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6929,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6952,7 +6967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6975,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -6998,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -7021,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
@@ -7044,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -7067,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -7090,7 +7105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -7113,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -7136,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -7182,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -7205,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -7228,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -7251,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7274,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -7297,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -7320,7 +7335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -7343,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -7366,7 +7381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7389,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -7412,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>278</v>
       </c>
@@ -7435,58 +7450,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C222">
-        <v>1</v>
-      </c>
-      <c r="D222" t="s">
-        <v>13</v>
-      </c>
-      <c r="E222" t="s">
-        <v>210</v>
-      </c>
-      <c r="F222">
-        <v>0</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
-      <c r="A223">
-        <v>2</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C223">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
       </c>
-      <c r="E223">
-        <v>0</v>
+      <c r="E223" t="s">
+        <v>210</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -7495,435 +7510,435 @@
         <v>13</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C225">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C225">
+      <c r="C226">
         <v>7</v>
       </c>
-      <c r="D225">
-        <v>1</v>
-      </c>
-      <c r="E225">
-        <v>0</v>
-      </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226">
-        <v>2</v>
-      </c>
-      <c r="B226" s="1" t="s">
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C226">
-        <v>12</v>
-      </c>
-      <c r="D226">
-        <v>5</v>
-      </c>
-      <c r="E226">
-        <v>5</v>
-      </c>
-      <c r="F226">
+      <c r="C227">
+        <v>12</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+      <c r="E227">
+        <v>5</v>
+      </c>
+      <c r="F227">
         <v>115</v>
       </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227">
-        <v>2</v>
-      </c>
-      <c r="B227" s="1" t="s">
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C227">
-        <v>12</v>
-      </c>
-      <c r="D227">
-        <v>5</v>
-      </c>
-      <c r="E227">
-        <v>5</v>
-      </c>
-      <c r="F227">
+      <c r="C228">
+        <v>12</v>
+      </c>
+      <c r="D228">
+        <v>5</v>
+      </c>
+      <c r="E228">
+        <v>5</v>
+      </c>
+      <c r="F228">
         <v>116</v>
       </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
-      <c r="A228">
-        <v>2</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C228">
-        <v>12</v>
-      </c>
-      <c r="D228">
-        <v>5</v>
-      </c>
-      <c r="E228">
-        <v>5</v>
-      </c>
-      <c r="F228">
+      <c r="C229">
+        <v>12</v>
+      </c>
+      <c r="D229">
+        <v>5</v>
+      </c>
+      <c r="E229">
+        <v>5</v>
+      </c>
+      <c r="F229">
         <v>117</v>
       </c>
-      <c r="G228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
-      <c r="A229">
-        <v>2</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C229">
-        <v>12</v>
-      </c>
-      <c r="D229">
-        <v>5</v>
-      </c>
-      <c r="E229">
-        <v>5</v>
-      </c>
-      <c r="F229">
+      <c r="C230">
+        <v>12</v>
+      </c>
+      <c r="D230">
+        <v>5</v>
+      </c>
+      <c r="E230">
+        <v>5</v>
+      </c>
+      <c r="F230">
         <v>118</v>
       </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
-      <c r="A230">
-        <v>2</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C230">
-        <v>12</v>
-      </c>
-      <c r="D230">
-        <v>5</v>
-      </c>
-      <c r="E230">
-        <v>5</v>
-      </c>
-      <c r="F230">
+      <c r="C231">
+        <v>12</v>
+      </c>
+      <c r="D231">
+        <v>5</v>
+      </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
         <v>119</v>
       </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
-      <c r="A231">
-        <v>2</v>
-      </c>
-      <c r="B231" s="1" t="s">
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C231">
-        <v>12</v>
-      </c>
-      <c r="D231">
-        <v>5</v>
-      </c>
-      <c r="E231">
-        <v>5</v>
-      </c>
-      <c r="F231">
+      <c r="C232">
+        <v>12</v>
+      </c>
+      <c r="D232">
+        <v>5</v>
+      </c>
+      <c r="E232">
+        <v>5</v>
+      </c>
+      <c r="F232">
         <v>120</v>
       </c>
-      <c r="G231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232">
-        <v>2</v>
-      </c>
-      <c r="B232" s="1" t="s">
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C232">
-        <v>12</v>
-      </c>
-      <c r="D232">
-        <v>5</v>
-      </c>
-      <c r="E232">
-        <v>5</v>
-      </c>
-      <c r="F232">
+      <c r="C233">
+        <v>12</v>
+      </c>
+      <c r="D233">
+        <v>5</v>
+      </c>
+      <c r="E233">
+        <v>5</v>
+      </c>
+      <c r="F233">
         <v>121</v>
       </c>
-      <c r="G232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233">
-        <v>2</v>
-      </c>
-      <c r="B233" s="1" t="s">
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>2</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C233">
-        <v>12</v>
-      </c>
-      <c r="D233">
-        <v>5</v>
-      </c>
-      <c r="E233">
-        <v>5</v>
-      </c>
-      <c r="F233">
+      <c r="C234">
+        <v>12</v>
+      </c>
+      <c r="D234">
+        <v>5</v>
+      </c>
+      <c r="E234">
+        <v>5</v>
+      </c>
+      <c r="F234">
         <v>122</v>
       </c>
-      <c r="G233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234">
-        <v>2</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C234">
+      <c r="C235">
         <v>15</v>
       </c>
-      <c r="D234">
+      <c r="D235">
         <v>123</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E235" t="s">
         <v>276</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" t="s">
         <v>281</v>
       </c>
-      <c r="G234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235">
-        <v>2</v>
-      </c>
-      <c r="B235" s="1" t="s">
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C235">
-        <v>12</v>
-      </c>
-      <c r="D235">
-        <v>2</v>
-      </c>
-      <c r="E235">
-        <v>2</v>
-      </c>
-      <c r="F235">
+      <c r="C236">
+        <v>12</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
         <v>124</v>
       </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236">
-        <v>2</v>
-      </c>
-      <c r="B236" s="1" t="s">
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C236">
-        <v>12</v>
-      </c>
-      <c r="D236">
-        <v>5</v>
-      </c>
-      <c r="E236">
-        <v>5</v>
-      </c>
-      <c r="F236">
+      <c r="C237">
+        <v>12</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237">
         <v>125</v>
       </c>
-      <c r="G236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237">
-        <v>2</v>
-      </c>
-      <c r="B237" s="1" t="s">
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C237">
-        <v>12</v>
-      </c>
-      <c r="D237">
-        <v>5</v>
-      </c>
-      <c r="E237">
-        <v>5</v>
-      </c>
-      <c r="F237">
+      <c r="C238">
+        <v>12</v>
+      </c>
+      <c r="D238">
+        <v>5</v>
+      </c>
+      <c r="E238">
+        <v>5</v>
+      </c>
+      <c r="F238">
         <v>126</v>
       </c>
-      <c r="G237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238">
-        <v>2</v>
-      </c>
-      <c r="B238" s="1" t="s">
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C238">
+      <c r="C239">
         <v>20</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>275</v>
       </c>
-      <c r="E238">
-        <v>0</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" t="s">
-        <v>275</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C239">
-        <v>12</v>
-      </c>
-      <c r="D239">
-        <v>5</v>
-      </c>
       <c r="E239">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="G239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>275</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C240">
+        <v>12</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240">
+        <v>5</v>
+      </c>
+      <c r="F240">
+        <v>127</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>275</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C240">
+      <c r="C241">
         <v>19</v>
       </c>
-      <c r="D240">
-        <v>0</v>
-      </c>
-      <c r="E240">
-        <v>3</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241">
-        <v>3</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>3</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241" t="s">
-        <v>13</v>
-      </c>
-      <c r="E241" t="s">
-        <v>207</v>
-      </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
-      <c r="A242">
-        <v>3</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C242">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D242" t="s">
         <v>13</v>
       </c>
-      <c r="E242">
-        <v>0</v>
+      <c r="E242" t="s">
+        <v>207</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
       <c r="G242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C243">
         <v>5</v>
@@ -7932,366 +7947,366 @@
         <v>13</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C244">
+        <v>5</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C244">
+      <c r="C245">
         <v>7</v>
       </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245">
-        <v>3</v>
-      </c>
-      <c r="B245" s="1" t="s">
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C245">
-        <v>12</v>
-      </c>
-      <c r="D245">
-        <v>5</v>
-      </c>
-      <c r="E245">
-        <v>5</v>
-      </c>
-      <c r="F245">
+      <c r="C246">
+        <v>12</v>
+      </c>
+      <c r="D246">
+        <v>5</v>
+      </c>
+      <c r="E246">
+        <v>5</v>
+      </c>
+      <c r="F246">
         <v>128</v>
       </c>
-      <c r="G245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246">
-        <v>3</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C246">
-        <v>12</v>
-      </c>
-      <c r="D246">
-        <v>5</v>
-      </c>
-      <c r="E246">
-        <v>5</v>
-      </c>
-      <c r="F246">
+      <c r="C247">
+        <v>12</v>
+      </c>
+      <c r="D247">
+        <v>5</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
         <v>129</v>
       </c>
-      <c r="G246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247">
-        <v>3</v>
-      </c>
-      <c r="B247" s="1" t="s">
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>3</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C247">
-        <v>12</v>
-      </c>
-      <c r="D247">
-        <v>5</v>
-      </c>
-      <c r="E247">
-        <v>5</v>
-      </c>
-      <c r="F247">
+      <c r="C248">
+        <v>12</v>
+      </c>
+      <c r="D248">
+        <v>5</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
         <v>130</v>
       </c>
-      <c r="G247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248">
-        <v>3</v>
-      </c>
-      <c r="B248" s="1" t="s">
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C248">
-        <v>12</v>
-      </c>
-      <c r="D248">
-        <v>5</v>
-      </c>
-      <c r="E248">
-        <v>5</v>
-      </c>
-      <c r="F248">
+      <c r="C249">
+        <v>12</v>
+      </c>
+      <c r="D249">
+        <v>5</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
         <v>131</v>
       </c>
-      <c r="G248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249">
-        <v>3</v>
-      </c>
-      <c r="B249" s="1" t="s">
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C249">
-        <v>12</v>
-      </c>
-      <c r="D249">
-        <v>5</v>
-      </c>
-      <c r="E249">
-        <v>5</v>
-      </c>
-      <c r="F249">
+      <c r="C250">
+        <v>12</v>
+      </c>
+      <c r="D250">
+        <v>5</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
         <v>132</v>
       </c>
-      <c r="G249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250">
-        <v>3</v>
-      </c>
-      <c r="B250" s="1" t="s">
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>3</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C250">
-        <v>12</v>
-      </c>
-      <c r="D250">
-        <v>5</v>
-      </c>
-      <c r="E250">
-        <v>5</v>
-      </c>
-      <c r="F250">
+      <c r="C251">
+        <v>12</v>
+      </c>
+      <c r="D251">
+        <v>5</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
         <v>133</v>
       </c>
-      <c r="G250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
-      <c r="A251">
-        <v>3</v>
-      </c>
-      <c r="B251" s="1" t="s">
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>3</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C251">
-        <v>12</v>
-      </c>
-      <c r="D251">
-        <v>5</v>
-      </c>
-      <c r="E251">
-        <v>5</v>
-      </c>
-      <c r="F251">
+      <c r="C252">
+        <v>12</v>
+      </c>
+      <c r="D252">
+        <v>5</v>
+      </c>
+      <c r="E252">
+        <v>5</v>
+      </c>
+      <c r="F252">
         <v>134</v>
       </c>
-      <c r="G251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
-      <c r="A252">
-        <v>3</v>
-      </c>
-      <c r="B252" t="s">
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
         <v>231</v>
       </c>
-      <c r="C252">
-        <v>12</v>
-      </c>
-      <c r="D252">
-        <v>5</v>
-      </c>
-      <c r="E252">
-        <v>5</v>
-      </c>
-      <c r="F252">
+      <c r="C253">
+        <v>12</v>
+      </c>
+      <c r="D253">
+        <v>5</v>
+      </c>
+      <c r="E253">
+        <v>5</v>
+      </c>
+      <c r="F253">
         <v>135</v>
       </c>
-      <c r="G252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
-      <c r="A253">
-        <v>3</v>
-      </c>
-      <c r="B253" t="s">
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" t="s">
         <v>232</v>
       </c>
-      <c r="C253">
-        <v>12</v>
-      </c>
-      <c r="D253">
-        <v>5</v>
-      </c>
-      <c r="E253">
-        <v>5</v>
-      </c>
-      <c r="F253">
+      <c r="C254">
+        <v>12</v>
+      </c>
+      <c r="D254">
+        <v>5</v>
+      </c>
+      <c r="E254">
+        <v>5</v>
+      </c>
+      <c r="F254">
         <v>136</v>
       </c>
-      <c r="G253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254">
-        <v>3</v>
-      </c>
-      <c r="B254" t="s">
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
         <v>233</v>
       </c>
-      <c r="C254">
-        <v>12</v>
-      </c>
-      <c r="D254">
-        <v>5</v>
-      </c>
-      <c r="E254">
-        <v>5</v>
-      </c>
-      <c r="F254">
+      <c r="C255">
+        <v>12</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255">
+        <v>5</v>
+      </c>
+      <c r="F255">
         <v>137</v>
       </c>
-      <c r="G254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255">
-        <v>3</v>
-      </c>
-      <c r="B255" t="s">
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
         <v>234</v>
       </c>
-      <c r="C255">
-        <v>12</v>
-      </c>
-      <c r="D255">
-        <v>5</v>
-      </c>
-      <c r="E255">
-        <v>5</v>
-      </c>
-      <c r="F255">
+      <c r="C256">
+        <v>12</v>
+      </c>
+      <c r="D256">
+        <v>5</v>
+      </c>
+      <c r="E256">
+        <v>5</v>
+      </c>
+      <c r="F256">
         <v>138</v>
       </c>
-      <c r="G255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256">
-        <v>3</v>
-      </c>
-      <c r="B256" t="s">
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
         <v>235</v>
       </c>
-      <c r="C256">
-        <v>12</v>
-      </c>
-      <c r="D256">
-        <v>0</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-      <c r="F256">
+      <c r="C257">
+        <v>12</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
         <v>139</v>
       </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
-      <c r="A257">
-        <v>4</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>13</v>
-      </c>
-      <c r="E257" t="s">
-        <v>271</v>
-      </c>
-      <c r="F257">
-        <v>0</v>
-      </c>
       <c r="G257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C258">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D258" t="s">
         <v>13</v>
       </c>
-      <c r="E258">
-        <v>0</v>
+      <c r="E258" t="s">
+        <v>271</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C259">
         <v>5</v>
@@ -8300,67 +8315,67 @@
         <v>13</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C260">
-        <v>7</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4</v>
       </c>
-      <c r="B261" t="s">
-        <v>236</v>
+      <c r="B261" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="C261">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E261">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F261">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="G261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4</v>
       </c>
       <c r="B262" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C262">
         <v>12</v>
@@ -8372,18 +8387,18 @@
         <v>5</v>
       </c>
       <c r="F262">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4</v>
       </c>
       <c r="B263" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C263">
         <v>12</v>
@@ -8395,18 +8410,18 @@
         <v>5</v>
       </c>
       <c r="F263">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C264">
         <v>12</v>
@@ -8418,18 +8433,18 @@
         <v>5</v>
       </c>
       <c r="F264">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4</v>
       </c>
       <c r="B265" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C265">
         <v>12</v>
@@ -8441,18 +8456,18 @@
         <v>5</v>
       </c>
       <c r="F265">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4</v>
       </c>
       <c r="B266" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C266">
         <v>12</v>
@@ -8464,87 +8479,87 @@
         <v>5</v>
       </c>
       <c r="F266">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="B267" t="s">
+        <v>241</v>
+      </c>
+      <c r="C267">
+        <v>12</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>5</v>
+      </c>
+      <c r="F267">
+        <v>146</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>4</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C267">
+      <c r="C268">
         <v>19</v>
       </c>
-      <c r="D267">
-        <v>0</v>
-      </c>
-      <c r="E267">
-        <v>5</v>
-      </c>
-      <c r="F267">
-        <v>0</v>
-      </c>
-      <c r="G267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268">
-        <v>5</v>
-      </c>
-      <c r="B268" s="1" t="s">
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>5</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C268">
-        <v>1</v>
-      </c>
-      <c r="D268" t="s">
-        <v>13</v>
-      </c>
-      <c r="E268" t="s">
-        <v>207</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
-      <c r="A269">
-        <v>5</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C269">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D269" t="s">
         <v>13</v>
       </c>
-      <c r="E269">
-        <v>0</v>
+      <c r="E269" t="s">
+        <v>207</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -8553,136 +8568,136 @@
         <v>13</v>
       </c>
       <c r="E270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C271">
+        <v>5</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>5</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C271">
+      <c r="C272">
         <v>7</v>
       </c>
-      <c r="D271">
-        <v>1</v>
-      </c>
-      <c r="E271">
-        <v>0</v>
-      </c>
-      <c r="F271">
-        <v>0</v>
-      </c>
-      <c r="G271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272">
-        <v>5</v>
-      </c>
-      <c r="B272" t="s">
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
         <v>243</v>
       </c>
-      <c r="C272">
-        <v>12</v>
-      </c>
-      <c r="D272">
-        <v>5</v>
-      </c>
-      <c r="E272">
-        <v>5</v>
-      </c>
-      <c r="F272">
+      <c r="C273">
+        <v>12</v>
+      </c>
+      <c r="D273">
+        <v>5</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
+      </c>
+      <c r="F273">
         <v>147</v>
       </c>
-      <c r="G272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273">
-        <v>5</v>
-      </c>
-      <c r="B273" s="1" t="s">
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>5</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C273">
-        <v>5</v>
-      </c>
-      <c r="D273" t="s">
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
         <v>13</v>
       </c>
-      <c r="E273">
-        <v>0</v>
-      </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274">
-        <v>5</v>
-      </c>
-      <c r="B274" s="1" t="s">
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>5</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C274">
-        <v>1</v>
-      </c>
-      <c r="D274" t="s">
-        <v>20</v>
-      </c>
-      <c r="E274" t="s">
-        <v>87</v>
-      </c>
-      <c r="F274">
-        <v>0</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275">
-        <v>5</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C275">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D275" t="s">
         <v>20</v>
       </c>
-      <c r="E275">
-        <v>0</v>
+      <c r="E275" t="s">
+        <v>87</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
       <c r="G275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>5</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C276">
         <v>5</v>
@@ -8691,725 +8706,748 @@
         <v>20</v>
       </c>
       <c r="E276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>5</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+      <c r="D277" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C277">
+      <c r="C278">
         <v>7</v>
       </c>
-      <c r="D277">
-        <v>1</v>
-      </c>
-      <c r="E277">
-        <v>0</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278">
-        <v>5</v>
-      </c>
-      <c r="B278" s="1" t="s">
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C278">
+      <c r="C279">
         <v>6</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D279" t="s">
         <v>13</v>
       </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>0</v>
-      </c>
-      <c r="G278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279">
-        <v>5</v>
-      </c>
-      <c r="B279" s="1" t="s">
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>5</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C279">
+      <c r="C280">
         <v>100</v>
       </c>
-      <c r="D279">
-        <v>0</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280">
-        <v>5</v>
-      </c>
-      <c r="B280" t="s">
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
         <v>244</v>
       </c>
-      <c r="C280">
-        <v>12</v>
-      </c>
-      <c r="D280">
-        <v>5</v>
-      </c>
-      <c r="E280">
-        <v>5</v>
-      </c>
-      <c r="F280">
+      <c r="C281">
+        <v>12</v>
+      </c>
+      <c r="D281">
+        <v>5</v>
+      </c>
+      <c r="E281">
+        <v>5</v>
+      </c>
+      <c r="F281">
         <v>148</v>
       </c>
-      <c r="G280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281">
-        <v>5</v>
-      </c>
-      <c r="B281" t="s">
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
         <v>245</v>
       </c>
-      <c r="C281">
-        <v>12</v>
-      </c>
-      <c r="D281">
-        <v>5</v>
-      </c>
-      <c r="E281">
-        <v>5</v>
-      </c>
-      <c r="F281">
+      <c r="C282">
+        <v>12</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282">
+        <v>5</v>
+      </c>
+      <c r="F282">
         <v>149</v>
       </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282">
-        <v>5</v>
-      </c>
-      <c r="B282" t="s">
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
         <v>246</v>
       </c>
-      <c r="C282">
-        <v>12</v>
-      </c>
-      <c r="D282">
-        <v>5</v>
-      </c>
-      <c r="E282">
-        <v>5</v>
-      </c>
-      <c r="F282">
+      <c r="C283">
+        <v>12</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283">
+        <v>5</v>
+      </c>
+      <c r="F283">
         <v>150</v>
       </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
-      <c r="A283">
-        <v>5</v>
-      </c>
-      <c r="B283" t="s">
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
         <v>247</v>
       </c>
-      <c r="C283">
-        <v>12</v>
-      </c>
-      <c r="D283">
-        <v>5</v>
-      </c>
-      <c r="E283">
-        <v>5</v>
-      </c>
-      <c r="F283">
+      <c r="C284">
+        <v>12</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284">
+        <v>5</v>
+      </c>
+      <c r="F284">
         <v>151</v>
       </c>
-      <c r="G283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284">
-        <v>5</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
         <v>248</v>
       </c>
-      <c r="C284">
-        <v>12</v>
-      </c>
-      <c r="D284">
-        <v>5</v>
-      </c>
-      <c r="E284">
-        <v>5</v>
-      </c>
-      <c r="F284">
+      <c r="C285">
+        <v>12</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285">
+        <v>5</v>
+      </c>
+      <c r="F285">
         <v>152</v>
       </c>
-      <c r="G284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285">
-        <v>5</v>
-      </c>
-      <c r="B285" t="s">
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
         <v>249</v>
       </c>
-      <c r="C285">
-        <v>12</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-      <c r="E285">
-        <v>2</v>
-      </c>
-      <c r="F285">
+      <c r="C286">
+        <v>12</v>
+      </c>
+      <c r="D286">
+        <v>2</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286">
         <v>153</v>
       </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286">
-        <v>5</v>
-      </c>
-      <c r="B286" t="s">
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
         <v>250</v>
       </c>
-      <c r="C286">
-        <v>12</v>
-      </c>
-      <c r="D286">
-        <v>3</v>
-      </c>
-      <c r="E286">
-        <v>3</v>
-      </c>
-      <c r="F286">
+      <c r="C287">
+        <v>12</v>
+      </c>
+      <c r="D287">
+        <v>3</v>
+      </c>
+      <c r="E287">
+        <v>3</v>
+      </c>
+      <c r="F287">
         <v>154</v>
       </c>
-      <c r="G286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287">
-        <v>5</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
         <v>251</v>
       </c>
-      <c r="C287">
-        <v>12</v>
-      </c>
-      <c r="D287">
+      <c r="C288">
+        <v>12</v>
+      </c>
+      <c r="D288">
         <v>4</v>
       </c>
-      <c r="E287">
+      <c r="E288">
         <v>4</v>
       </c>
-      <c r="F287">
+      <c r="F288">
         <v>155</v>
       </c>
-      <c r="G287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
-      <c r="A288">
-        <v>5</v>
-      </c>
-      <c r="B288" t="s">
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
         <v>252</v>
       </c>
-      <c r="C288">
-        <v>12</v>
-      </c>
-      <c r="D288">
-        <v>3</v>
-      </c>
-      <c r="E288">
-        <v>3</v>
-      </c>
-      <c r="F288">
+      <c r="C289">
+        <v>12</v>
+      </c>
+      <c r="D289">
+        <v>3</v>
+      </c>
+      <c r="E289">
+        <v>3</v>
+      </c>
+      <c r="F289">
         <v>156</v>
       </c>
-      <c r="G288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289">
-        <v>5</v>
-      </c>
-      <c r="B289" t="s">
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
         <v>253</v>
       </c>
-      <c r="C289">
-        <v>12</v>
-      </c>
-      <c r="D289">
+      <c r="C290">
+        <v>12</v>
+      </c>
+      <c r="D290">
         <v>4</v>
       </c>
-      <c r="E289">
+      <c r="E290">
         <v>4</v>
       </c>
-      <c r="F289">
+      <c r="F290">
         <v>157</v>
       </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
-      <c r="A290">
-        <v>5</v>
-      </c>
-      <c r="B290" t="s">
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
         <v>254</v>
       </c>
-      <c r="C290">
-        <v>12</v>
-      </c>
-      <c r="D290">
-        <v>3</v>
-      </c>
-      <c r="E290">
-        <v>3</v>
-      </c>
-      <c r="F290">
+      <c r="C291">
+        <v>12</v>
+      </c>
+      <c r="D291">
+        <v>3</v>
+      </c>
+      <c r="E291">
+        <v>3</v>
+      </c>
+      <c r="F291">
         <v>158</v>
       </c>
-      <c r="G290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291">
-        <v>5</v>
-      </c>
-      <c r="B291" t="s">
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
         <v>255</v>
       </c>
-      <c r="C291">
-        <v>12</v>
-      </c>
-      <c r="D291">
-        <v>3</v>
-      </c>
-      <c r="E291">
-        <v>3</v>
-      </c>
-      <c r="F291">
+      <c r="C292">
+        <v>12</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>3</v>
+      </c>
+      <c r="F292">
         <v>159</v>
       </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292">
-        <v>5</v>
-      </c>
-      <c r="B292" t="s">
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
         <v>256</v>
       </c>
-      <c r="C292">
-        <v>12</v>
-      </c>
-      <c r="D292">
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293">
         <v>4</v>
       </c>
-      <c r="E292">
+      <c r="E293">
         <v>4</v>
       </c>
-      <c r="F292">
+      <c r="F293">
         <v>160</v>
       </c>
-      <c r="G292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293">
-        <v>5</v>
-      </c>
-      <c r="B293" t="s">
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>5</v>
+      </c>
+      <c r="B294" t="s">
         <v>257</v>
       </c>
-      <c r="C293">
-        <v>12</v>
-      </c>
-      <c r="D293">
-        <v>2</v>
-      </c>
-      <c r="E293">
-        <v>2</v>
-      </c>
-      <c r="F293">
+      <c r="C294">
+        <v>12</v>
+      </c>
+      <c r="D294">
+        <v>2</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
         <v>161</v>
       </c>
-      <c r="G293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294">
-        <v>5</v>
-      </c>
-      <c r="B294" t="s">
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>5</v>
+      </c>
+      <c r="B295" t="s">
         <v>258</v>
       </c>
-      <c r="C294">
-        <v>12</v>
-      </c>
-      <c r="D294">
-        <v>5</v>
-      </c>
-      <c r="E294">
-        <v>5</v>
-      </c>
-      <c r="F294">
+      <c r="C295">
+        <v>12</v>
+      </c>
+      <c r="D295">
+        <v>5</v>
+      </c>
+      <c r="E295">
+        <v>5</v>
+      </c>
+      <c r="F295">
         <v>162</v>
       </c>
-      <c r="G294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295">
-        <v>5</v>
-      </c>
-      <c r="B295" t="s">
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
         <v>259</v>
       </c>
-      <c r="C295">
-        <v>12</v>
-      </c>
-      <c r="D295">
-        <v>5</v>
-      </c>
-      <c r="E295">
-        <v>5</v>
-      </c>
-      <c r="F295">
+      <c r="C296">
+        <v>12</v>
+      </c>
+      <c r="D296">
+        <v>5</v>
+      </c>
+      <c r="E296">
+        <v>5</v>
+      </c>
+      <c r="F296">
         <v>163</v>
       </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296">
-        <v>5</v>
-      </c>
-      <c r="B296" t="s">
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
         <v>260</v>
       </c>
-      <c r="C296">
-        <v>12</v>
-      </c>
-      <c r="D296">
+      <c r="C297">
+        <v>12</v>
+      </c>
+      <c r="D297">
         <v>4</v>
       </c>
-      <c r="E296">
+      <c r="E297">
         <v>4</v>
       </c>
-      <c r="F296">
+      <c r="F297">
         <v>164</v>
       </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
-      <c r="A297">
-        <v>5</v>
-      </c>
-      <c r="B297" t="s">
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
         <v>261</v>
       </c>
-      <c r="C297">
-        <v>12</v>
-      </c>
-      <c r="D297">
-        <v>5</v>
-      </c>
-      <c r="E297">
-        <v>5</v>
-      </c>
-      <c r="F297">
+      <c r="C298">
+        <v>12</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298">
+        <v>5</v>
+      </c>
+      <c r="F298">
         <v>165</v>
       </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
-      <c r="A298">
-        <v>5</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
         <v>262</v>
       </c>
-      <c r="C298">
-        <v>12</v>
-      </c>
-      <c r="D298">
-        <v>2</v>
-      </c>
-      <c r="E298">
-        <v>2</v>
-      </c>
-      <c r="F298">
+      <c r="C299">
+        <v>12</v>
+      </c>
+      <c r="D299">
+        <v>2</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299">
         <v>166</v>
       </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299">
-        <v>5</v>
-      </c>
-      <c r="B299" t="s">
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
         <v>263</v>
       </c>
-      <c r="C299">
-        <v>12</v>
-      </c>
-      <c r="D299">
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300">
         <v>4</v>
       </c>
-      <c r="E299">
+      <c r="E300">
         <v>4</v>
       </c>
-      <c r="F299">
+      <c r="F300">
         <v>167</v>
       </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300">
-        <v>5</v>
-      </c>
-      <c r="B300" t="s">
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
         <v>264</v>
       </c>
-      <c r="C300">
-        <v>12</v>
-      </c>
-      <c r="D300">
-        <v>5</v>
-      </c>
-      <c r="E300">
-        <v>5</v>
-      </c>
-      <c r="F300">
+      <c r="C301">
+        <v>12</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+      <c r="E301">
+        <v>5</v>
+      </c>
+      <c r="F301">
         <v>168</v>
       </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301">
-        <v>5</v>
-      </c>
-      <c r="B301" t="s">
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
         <v>265</v>
       </c>
-      <c r="C301">
-        <v>12</v>
-      </c>
-      <c r="D301">
-        <v>2</v>
-      </c>
-      <c r="E301">
-        <v>2</v>
-      </c>
-      <c r="F301">
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302">
+        <v>2</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302">
         <v>169</v>
       </c>
-      <c r="G301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
-      <c r="A302">
-        <v>5</v>
-      </c>
-      <c r="B302" t="s">
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
         <v>266</v>
       </c>
-      <c r="C302">
-        <v>12</v>
-      </c>
-      <c r="D302">
+      <c r="C303">
+        <v>12</v>
+      </c>
+      <c r="D303">
         <v>4</v>
       </c>
-      <c r="E302">
+      <c r="E303">
         <v>4</v>
       </c>
-      <c r="F302">
+      <c r="F303">
         <v>170</v>
       </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303">
-        <v>5</v>
-      </c>
-      <c r="B303" t="s">
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
         <v>267</v>
       </c>
-      <c r="C303">
-        <v>12</v>
-      </c>
-      <c r="D303">
-        <v>5</v>
-      </c>
-      <c r="E303">
-        <v>5</v>
-      </c>
-      <c r="F303">
+      <c r="C304">
+        <v>12</v>
+      </c>
+      <c r="D304">
+        <v>5</v>
+      </c>
+      <c r="E304">
+        <v>5</v>
+      </c>
+      <c r="F304">
         <v>171</v>
       </c>
-      <c r="G303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304">
-        <v>5</v>
-      </c>
-      <c r="B304" t="s">
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
         <v>268</v>
       </c>
-      <c r="C304">
-        <v>12</v>
-      </c>
-      <c r="D304">
-        <v>5</v>
-      </c>
-      <c r="E304">
-        <v>5</v>
-      </c>
-      <c r="F304">
+      <c r="C305">
+        <v>12</v>
+      </c>
+      <c r="D305">
+        <v>5</v>
+      </c>
+      <c r="E305">
+        <v>5</v>
+      </c>
+      <c r="F305">
         <v>172</v>
       </c>
-      <c r="G304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305">
-        <v>5</v>
-      </c>
-      <c r="B305" t="s">
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
         <v>269</v>
       </c>
-      <c r="C305">
-        <v>12</v>
-      </c>
-      <c r="D305">
-        <v>2</v>
-      </c>
-      <c r="E305">
-        <v>2</v>
-      </c>
-      <c r="F305">
+      <c r="C306">
+        <v>12</v>
+      </c>
+      <c r="D306">
+        <v>2</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306">
         <v>173</v>
       </c>
-      <c r="G305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306">
-        <v>5</v>
-      </c>
-      <c r="B306" t="s">
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
         <v>270</v>
       </c>
-      <c r="C306">
-        <v>12</v>
-      </c>
-      <c r="D306">
-        <v>5</v>
-      </c>
-      <c r="E306">
-        <v>5</v>
-      </c>
-      <c r="F306">
+      <c r="C307">
+        <v>12</v>
+      </c>
+      <c r="D307">
+        <v>5</v>
+      </c>
+      <c r="E307">
+        <v>5</v>
+      </c>
+      <c r="F307">
         <v>174</v>
       </c>
-      <c r="G306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307">
-        <v>5</v>
-      </c>
-      <c r="B307" s="1" t="s">
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>5</v>
+      </c>
+      <c r="B308" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C307">
+      <c r="C308">
         <v>21</v>
       </c>
-      <c r="D307">
+      <c r="D308">
         <v>7</v>
       </c>
-      <c r="E307">
-        <v>0</v>
-      </c>
-      <c r="F307">
-        <v>0</v>
-      </c>
-      <c r="G307">
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+      <c r="G308">
         <v>0</v>
       </c>
     </row>
@@ -9417,10 +9455,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataSource/excel/story.xlsx
+++ b/DataSource/excel/story.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="317">
   <si>
     <t>storyId</t>
   </si>
@@ -1072,6 +1072,99 @@
   </si>
   <si>
     <t>备注：交易所 介绍</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Yujie Liu:</t>
+  </si>
+  <si>
+    <t>1.Add photo:  photoId; photoNo; level (0-99); 1：按照屏幕尺寸缩放</t>
+  </si>
+  <si>
+    <t>3.move photo: photoId; posX; posY; time</t>
+  </si>
+  <si>
+    <t>4.scale photo: photoId; scale; time，0原始图缩放1：对应屏幕尺寸</t>
+  </si>
+  <si>
+    <t>5.change photo alpha: photoId; new alpha ; time</t>
+  </si>
+  <si>
+    <t>6.remove photo: photoId</t>
+  </si>
+  <si>
+    <t>7.wait time: time</t>
+  </si>
+  <si>
+    <t>8. need click to continue.</t>
+  </si>
+  <si>
+    <t>9.Play music: musicId，循环次数，0表示无限循环</t>
+  </si>
+  <si>
+    <t>10.Play SE:  SE Name</t>
+  </si>
+  <si>
+    <t>11 stop bgm</t>
+  </si>
+  <si>
+    <t>13.show text：textContentId</t>
+  </si>
+  <si>
+    <t>14.remove text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  paramter1 为npc的时候， parameter2 = 1表示入队， parameter2 = 3表示离队， parameter 3 为npcId</t>
+  </si>
+  <si>
+    <t>18:决斗</t>
+  </si>
+  <si>
+    <t>20 Go to story: parameter1:storyid</t>
+  </si>
+  <si>
+    <t>21: goto parameter1: building No.</t>
+  </si>
+  <si>
+    <t>100：备注，不发生任何事情</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当 command = 17的时候， </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ship 表示获得船只， </t>
+  </si>
+  <si>
+    <t>npc 表示，加入npc，</t>
+  </si>
+  <si>
+    <t>money 表示金钱的变动，parameter2： 1得到，2 失去，3设定为， parame3，数值</t>
+  </si>
+  <si>
+    <t>2.set Photo anchorPoint photoId; position type， posX;posY</t>
+  </si>
+  <si>
+    <t>12 show dialog:  0/npc/city；对应 id；  textId， 1: selections followed</t>
+  </si>
+  <si>
+    <t>15 show DialogSelections: selectionsId; selectionStoryId， whether remove All photo</t>
+  </si>
+  <si>
+    <t>16 change logica data: logic Id;(parameter2 0:= ， 1:add 2:minus 3:multiply 4:devide &gt;4: self-definition，-1：remove it); value or expression; parameter4 = 0表示3号为数值，1：表示3号为变量</t>
+  </si>
+  <si>
+    <t>17 特殊的逻辑，例如 parameter1：表示功能如ship 表示添加船只，parameter2表示船只编号，parameter3表示船只名称，parameter4表示船舱货物</t>
+  </si>
+  <si>
+    <t>19 unlock/lock story， parameter1 0 unlock， 1 lock， parameter2 : storyId</t>
+  </si>
+  <si>
+    <t>duel表示决斗， param2:表示对战双方的npcId， param3表示胜负所跳转的剧情</t>
   </si>
 </sst>
 </file>
@@ -1178,8 +1271,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="417">
+  <cellStyleXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1603,7 +1700,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="417">
+  <cellStyles count="421">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1812,6 +1909,8 @@
     <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2020,6 +2119,8 @@
     <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2354,20 +2455,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G308"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C226" sqref="C226"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="158.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2389,8 +2491,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2412,8 +2517,11 @@
       <c r="G2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2435,8 +2543,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2458,8 +2569,11 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2481,8 +2595,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2504,8 +2621,11 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2527,8 +2647,11 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2550,8 +2673,11 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2573,8 +2699,11 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2596,8 +2725,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2619,8 +2751,11 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2642,8 +2777,11 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2665,8 +2803,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2688,8 +2829,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2711,8 +2855,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2734,8 +2881,11 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2757,8 +2907,11 @@
       <c r="G17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2780,8 +2933,11 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2803,8 +2959,11 @@
       <c r="G19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2826,8 +2985,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2849,8 +3011,11 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2872,8 +3037,11 @@
       <c r="G22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2895,8 +3063,11 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2918,8 +3089,11 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2964,8 +3141,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2987,8 +3167,11 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3010,8 +3193,11 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3033,8 +3219,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3056,8 +3245,11 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3079,8 +3271,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3102,8 +3297,11 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3125,8 +3323,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3148,8 +3349,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3171,8 +3375,11 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3194,8 +3401,11 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3217,8 +3427,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3240,8 +3453,11 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3263,8 +3479,11 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3286,8 +3505,11 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3309,8 +3531,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3332,8 +3557,11 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3355,8 +3583,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3366,8 +3597,8 @@
       <c r="C44">
         <v>12</v>
       </c>
-      <c r="D44">
-        <v>4</v>
+      <c r="D44" t="s">
+        <v>55</v>
       </c>
       <c r="E44">
         <v>4</v>
@@ -3378,8 +3609,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3401,8 +3635,11 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3412,8 +3649,8 @@
       <c r="C46">
         <v>12</v>
       </c>
-      <c r="D46">
-        <v>2</v>
+      <c r="D46" t="s">
+        <v>55</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -3424,8 +3661,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3447,8 +3687,11 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3470,8 +3713,11 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3493,8 +3739,11 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3516,8 +3765,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3539,8 +3791,11 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3562,8 +3817,11 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3585,8 +3843,11 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3608,8 +3869,11 @@
       <c r="G54">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3631,8 +3895,11 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3654,8 +3921,11 @@
       <c r="G56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3677,8 +3947,11 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3700,8 +3973,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3723,8 +3999,11 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3746,8 +4025,11 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3769,8 +4051,11 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3780,8 +4065,8 @@
       <c r="C62">
         <v>12</v>
       </c>
-      <c r="D62">
-        <v>3</v>
+      <c r="D62" t="s">
+        <v>55</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3792,8 +4077,11 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3803,8 +4091,8 @@
       <c r="C63">
         <v>12</v>
       </c>
-      <c r="D63">
-        <v>3</v>
+      <c r="D63" t="s">
+        <v>55</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -3815,8 +4103,11 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -3826,8 +4117,8 @@
       <c r="C64">
         <v>12</v>
       </c>
-      <c r="D64">
-        <v>3</v>
+      <c r="D64" t="s">
+        <v>55</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -3838,8 +4129,11 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3861,8 +4155,11 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1</v>
       </c>
@@ -3884,8 +4181,11 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1</v>
       </c>
@@ -3907,8 +4207,11 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3930,8 +4233,11 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H68" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1</v>
       </c>
@@ -3953,8 +4259,11 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -3976,8 +4285,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3999,8 +4311,11 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1</v>
       </c>
@@ -4022,8 +4337,11 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -4045,8 +4363,11 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1</v>
       </c>
@@ -4056,8 +4377,8 @@
       <c r="C74">
         <v>12</v>
       </c>
-      <c r="D74">
-        <v>4</v>
+      <c r="D74" t="s">
+        <v>55</v>
       </c>
       <c r="E74">
         <v>4</v>
@@ -4068,8 +4389,11 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1</v>
       </c>
@@ -4079,8 +4403,8 @@
       <c r="C75">
         <v>12</v>
       </c>
-      <c r="D75">
-        <v>3</v>
+      <c r="D75" t="s">
+        <v>55</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4091,8 +4415,11 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1</v>
       </c>
@@ -4102,8 +4429,8 @@
       <c r="C76">
         <v>12</v>
       </c>
-      <c r="D76">
-        <v>2</v>
+      <c r="D76" t="s">
+        <v>55</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -4114,8 +4441,11 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1</v>
       </c>
@@ -4137,8 +4467,11 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1</v>
       </c>
@@ -4160,8 +4493,11 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -4183,8 +4519,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -4206,8 +4545,11 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1</v>
       </c>
@@ -4229,8 +4571,11 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4252,8 +4597,11 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -4275,8 +4623,11 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4286,8 +4637,8 @@
       <c r="C84">
         <v>12</v>
       </c>
-      <c r="D84">
-        <v>2</v>
+      <c r="D84" t="s">
+        <v>55</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -4298,8 +4649,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1</v>
       </c>
@@ -4309,8 +4663,8 @@
       <c r="C85">
         <v>12</v>
       </c>
-      <c r="D85">
-        <v>3</v>
+      <c r="D85" t="s">
+        <v>55</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -4321,8 +4675,11 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1</v>
       </c>
@@ -4332,8 +4689,8 @@
       <c r="C86">
         <v>12</v>
       </c>
-      <c r="D86">
-        <v>2</v>
+      <c r="D86" t="s">
+        <v>55</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -4344,8 +4701,11 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1</v>
       </c>
@@ -4367,8 +4727,11 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1</v>
       </c>
@@ -4378,8 +4741,8 @@
       <c r="C88">
         <v>12</v>
       </c>
-      <c r="D88">
-        <v>3</v>
+      <c r="D88" t="s">
+        <v>55</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -4390,8 +4753,11 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1</v>
       </c>
@@ -4401,8 +4767,8 @@
       <c r="C89">
         <v>12</v>
       </c>
-      <c r="D89">
-        <v>3</v>
+      <c r="D89" t="s">
+        <v>55</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -4413,8 +4779,11 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1</v>
       </c>
@@ -4424,8 +4793,8 @@
       <c r="C90">
         <v>12</v>
       </c>
-      <c r="D90">
-        <v>4</v>
+      <c r="D90" t="s">
+        <v>55</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -4436,8 +4805,11 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1</v>
       </c>
@@ -4447,8 +4819,8 @@
       <c r="C91">
         <v>12</v>
       </c>
-      <c r="D91">
-        <v>3</v>
+      <c r="D91" t="s">
+        <v>55</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -4459,8 +4831,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -4470,8 +4845,8 @@
       <c r="C92">
         <v>12</v>
       </c>
-      <c r="D92">
-        <v>4</v>
+      <c r="D92" t="s">
+        <v>55</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -4482,8 +4857,11 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1</v>
       </c>
@@ -4493,8 +4871,8 @@
       <c r="C93">
         <v>12</v>
       </c>
-      <c r="D93">
-        <v>3</v>
+      <c r="D93" t="s">
+        <v>55</v>
       </c>
       <c r="E93">
         <v>3</v>
@@ -4505,8 +4883,11 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1</v>
       </c>
@@ -4516,8 +4897,8 @@
       <c r="C94">
         <v>12</v>
       </c>
-      <c r="D94">
-        <v>4</v>
+      <c r="D94" t="s">
+        <v>55</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -4528,8 +4909,11 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1</v>
       </c>
@@ -4539,8 +4923,8 @@
       <c r="C95">
         <v>12</v>
       </c>
-      <c r="D95">
-        <v>3</v>
+      <c r="D95" t="s">
+        <v>55</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -4551,8 +4935,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4562,8 +4949,8 @@
       <c r="C96">
         <v>12</v>
       </c>
-      <c r="D96">
-        <v>4</v>
+      <c r="D96" t="s">
+        <v>55</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -4574,8 +4961,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1</v>
       </c>
@@ -4597,8 +4987,11 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -4620,8 +5013,11 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1</v>
       </c>
@@ -4643,8 +5039,11 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4666,8 +5065,11 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1</v>
       </c>
@@ -4689,8 +5091,11 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -4712,8 +5117,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -4735,8 +5143,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -4758,8 +5169,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -4781,8 +5195,11 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H105" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4804,8 +5221,11 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4827,8 +5247,11 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4850,8 +5273,11 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H108" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4873,8 +5299,11 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4896,8 +5325,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4919,8 +5351,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4930,8 +5365,8 @@
       <c r="C112">
         <v>12</v>
       </c>
-      <c r="D112">
-        <v>5</v>
+      <c r="D112" t="s">
+        <v>55</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -4942,8 +5377,11 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H112" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4953,8 +5391,8 @@
       <c r="C113">
         <v>12</v>
       </c>
-      <c r="D113">
-        <v>3</v>
+      <c r="D113" t="s">
+        <v>55</v>
       </c>
       <c r="E113">
         <v>3</v>
@@ -4965,8 +5403,11 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4976,8 +5417,8 @@
       <c r="C114">
         <v>12</v>
       </c>
-      <c r="D114">
-        <v>2</v>
+      <c r="D114" t="s">
+        <v>55</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -4988,8 +5429,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4999,8 +5443,8 @@
       <c r="C115">
         <v>12</v>
       </c>
-      <c r="D115">
-        <v>5</v>
+      <c r="D115" t="s">
+        <v>55</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -5011,8 +5455,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H115" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -5022,8 +5469,8 @@
       <c r="C116">
         <v>12</v>
       </c>
-      <c r="D116">
-        <v>2</v>
+      <c r="D116" t="s">
+        <v>55</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -5034,8 +5481,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -5045,8 +5495,8 @@
       <c r="C117">
         <v>12</v>
       </c>
-      <c r="D117">
-        <v>3</v>
+      <c r="D117" t="s">
+        <v>55</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -5057,8 +5507,11 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -5068,8 +5521,8 @@
       <c r="C118">
         <v>12</v>
       </c>
-      <c r="D118">
-        <v>5</v>
+      <c r="D118" t="s">
+        <v>55</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -5080,8 +5533,11 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -5091,8 +5547,8 @@
       <c r="C119">
         <v>12</v>
       </c>
-      <c r="D119">
-        <v>4</v>
+      <c r="D119" t="s">
+        <v>55</v>
       </c>
       <c r="E119">
         <v>4</v>
@@ -5103,8 +5559,11 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -5114,8 +5573,8 @@
       <c r="C120">
         <v>12</v>
       </c>
-      <c r="D120">
-        <v>3</v>
+      <c r="D120" t="s">
+        <v>55</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -5126,8 +5585,11 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -5137,8 +5599,8 @@
       <c r="C121">
         <v>12</v>
       </c>
-      <c r="D121">
-        <v>2</v>
+      <c r="D121" t="s">
+        <v>55</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -5149,8 +5611,11 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -5160,8 +5625,8 @@
       <c r="C122">
         <v>12</v>
       </c>
-      <c r="D122">
-        <v>5</v>
+      <c r="D122" t="s">
+        <v>55</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -5172,8 +5637,11 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -5183,8 +5651,8 @@
       <c r="C123">
         <v>12</v>
       </c>
-      <c r="D123">
-        <v>2</v>
+      <c r="D123" t="s">
+        <v>55</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -5195,8 +5663,11 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -5206,8 +5677,8 @@
       <c r="C124">
         <v>12</v>
       </c>
-      <c r="D124">
-        <v>5</v>
+      <c r="D124" t="s">
+        <v>55</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -5218,8 +5689,11 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -5229,8 +5703,8 @@
       <c r="C125">
         <v>12</v>
       </c>
-      <c r="D125">
-        <v>3</v>
+      <c r="D125" t="s">
+        <v>55</v>
       </c>
       <c r="E125">
         <v>3</v>
@@ -5241,8 +5715,11 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H125" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -5252,8 +5729,8 @@
       <c r="C126">
         <v>12</v>
       </c>
-      <c r="D126">
-        <v>4</v>
+      <c r="D126" t="s">
+        <v>55</v>
       </c>
       <c r="E126">
         <v>4</v>
@@ -5264,8 +5741,11 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -5275,8 +5755,8 @@
       <c r="C127">
         <v>12</v>
       </c>
-      <c r="D127">
-        <v>2</v>
+      <c r="D127" t="s">
+        <v>55</v>
       </c>
       <c r="E127">
         <v>2</v>
@@ -5287,8 +5767,11 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>1</v>
       </c>
@@ -5298,8 +5781,8 @@
       <c r="C128">
         <v>12</v>
       </c>
-      <c r="D128" s="2">
-        <v>5</v>
+      <c r="D128" t="s">
+        <v>55</v>
       </c>
       <c r="E128" s="2">
         <v>5</v>
@@ -5310,8 +5793,11 @@
       <c r="G128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -5333,8 +5819,11 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -5356,8 +5845,11 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -5379,8 +5871,11 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -5402,8 +5897,11 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -5425,8 +5923,11 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -5448,8 +5949,11 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -5471,8 +5975,11 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -5494,8 +6001,11 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5517,8 +6027,11 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5540,8 +6053,11 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5551,8 +6067,8 @@
       <c r="C139">
         <v>12</v>
       </c>
-      <c r="D139">
-        <v>3</v>
+      <c r="D139" t="s">
+        <v>55</v>
       </c>
       <c r="E139">
         <v>3</v>
@@ -5563,8 +6079,11 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5574,8 +6093,8 @@
       <c r="C140">
         <v>12</v>
       </c>
-      <c r="D140">
-        <v>4</v>
+      <c r="D140" t="s">
+        <v>55</v>
       </c>
       <c r="E140">
         <v>4</v>
@@ -5586,8 +6105,11 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5597,8 +6119,8 @@
       <c r="C141">
         <v>12</v>
       </c>
-      <c r="D141">
-        <v>2</v>
+      <c r="D141" t="s">
+        <v>55</v>
       </c>
       <c r="E141">
         <v>2</v>
@@ -5609,8 +6131,11 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H141" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5620,8 +6145,8 @@
       <c r="C142">
         <v>12</v>
       </c>
-      <c r="D142">
-        <v>2</v>
+      <c r="D142" t="s">
+        <v>55</v>
       </c>
       <c r="E142">
         <v>2</v>
@@ -5632,8 +6157,11 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5643,8 +6171,8 @@
       <c r="C143">
         <v>12</v>
       </c>
-      <c r="D143">
-        <v>3</v>
+      <c r="D143" t="s">
+        <v>55</v>
       </c>
       <c r="E143">
         <v>3</v>
@@ -5655,8 +6183,11 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H143" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5666,8 +6197,8 @@
       <c r="C144">
         <v>12</v>
       </c>
-      <c r="D144">
-        <v>4</v>
+      <c r="D144" t="s">
+        <v>55</v>
       </c>
       <c r="E144">
         <v>4</v>
@@ -5678,8 +6209,11 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5689,8 +6223,8 @@
       <c r="C145">
         <v>12</v>
       </c>
-      <c r="D145">
-        <v>3</v>
+      <c r="D145" t="s">
+        <v>55</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -5701,8 +6235,11 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H145" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5724,8 +6261,11 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5747,8 +6287,11 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H147" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5770,8 +6313,11 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5781,8 +6327,8 @@
       <c r="C149">
         <v>12</v>
       </c>
-      <c r="D149">
-        <v>5</v>
+      <c r="D149" t="s">
+        <v>55</v>
       </c>
       <c r="E149">
         <v>5</v>
@@ -5793,8 +6339,11 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5804,8 +6353,8 @@
       <c r="C150">
         <v>12</v>
       </c>
-      <c r="D150">
-        <v>2</v>
+      <c r="D150" t="s">
+        <v>55</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -5816,8 +6365,11 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5827,8 +6379,8 @@
       <c r="C151">
         <v>12</v>
       </c>
-      <c r="D151">
-        <v>5</v>
+      <c r="D151" t="s">
+        <v>55</v>
       </c>
       <c r="E151">
         <v>5</v>
@@ -5839,8 +6391,11 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5850,8 +6405,8 @@
       <c r="C152">
         <v>12</v>
       </c>
-      <c r="D152">
-        <v>4</v>
+      <c r="D152" t="s">
+        <v>55</v>
       </c>
       <c r="E152">
         <v>4</v>
@@ -5862,8 +6417,11 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5873,8 +6431,8 @@
       <c r="C153">
         <v>12</v>
       </c>
-      <c r="D153">
-        <v>5</v>
+      <c r="D153" t="s">
+        <v>55</v>
       </c>
       <c r="E153">
         <v>5</v>
@@ -5885,8 +6443,11 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5896,8 +6457,8 @@
       <c r="C154">
         <v>12</v>
       </c>
-      <c r="D154">
-        <v>3</v>
+      <c r="D154" t="s">
+        <v>55</v>
       </c>
       <c r="E154">
         <v>3</v>
@@ -5908,8 +6469,11 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H154" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5919,8 +6483,8 @@
       <c r="C155">
         <v>12</v>
       </c>
-      <c r="D155">
-        <v>5</v>
+      <c r="D155" t="s">
+        <v>55</v>
       </c>
       <c r="E155">
         <v>5</v>
@@ -5931,8 +6495,11 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5942,8 +6509,8 @@
       <c r="C156">
         <v>12</v>
       </c>
-      <c r="D156">
-        <v>2</v>
+      <c r="D156" t="s">
+        <v>55</v>
       </c>
       <c r="E156">
         <v>2</v>
@@ -5954,8 +6521,11 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H156" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5977,8 +6547,11 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H157" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5988,8 +6561,8 @@
       <c r="C158">
         <v>12</v>
       </c>
-      <c r="D158">
-        <v>5</v>
+      <c r="D158" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -6000,8 +6573,11 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H158" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -6011,8 +6587,8 @@
       <c r="C159">
         <v>12</v>
       </c>
-      <c r="D159">
-        <v>2</v>
+      <c r="D159" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -6023,8 +6599,11 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H159" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -6034,8 +6613,8 @@
       <c r="C160">
         <v>12</v>
       </c>
-      <c r="D160">
-        <v>5</v>
+      <c r="D160" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -6046,8 +6625,11 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H160" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -6057,8 +6639,8 @@
       <c r="C161">
         <v>12</v>
       </c>
-      <c r="D161">
-        <v>2</v>
+      <c r="D161" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E161">
         <v>2</v>
@@ -6069,8 +6651,11 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H161" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -6080,8 +6665,8 @@
       <c r="C162">
         <v>12</v>
       </c>
-      <c r="D162">
-        <v>5</v>
+      <c r="D162" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -6092,8 +6677,11 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H162" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -6103,8 +6691,8 @@
       <c r="C163">
         <v>12</v>
       </c>
-      <c r="D163">
-        <v>2</v>
+      <c r="D163" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E163">
         <v>2</v>
@@ -6115,8 +6703,11 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H163" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -6126,8 +6717,8 @@
       <c r="C164">
         <v>12</v>
       </c>
-      <c r="D164">
-        <v>4</v>
+      <c r="D164" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E164">
         <v>4</v>
@@ -6138,8 +6729,11 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H164" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -6149,8 +6743,8 @@
       <c r="C165">
         <v>12</v>
       </c>
-      <c r="D165">
-        <v>5</v>
+      <c r="D165" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -6161,8 +6755,11 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -6172,8 +6769,8 @@
       <c r="C166">
         <v>12</v>
       </c>
-      <c r="D166">
-        <v>3</v>
+      <c r="D166" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -6184,8 +6781,11 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H166" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -6195,8 +6795,8 @@
       <c r="C167">
         <v>12</v>
       </c>
-      <c r="D167">
-        <v>4</v>
+      <c r="D167" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E167">
         <v>4</v>
@@ -6207,8 +6807,11 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -6218,8 +6821,8 @@
       <c r="C168">
         <v>12</v>
       </c>
-      <c r="D168">
-        <v>4</v>
+      <c r="D168" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E168">
         <v>4</v>
@@ -6230,8 +6833,11 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H168" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6241,8 +6847,8 @@
       <c r="C169">
         <v>12</v>
       </c>
-      <c r="D169">
-        <v>2</v>
+      <c r="D169" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -6253,8 +6859,11 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H169" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6264,8 +6873,8 @@
       <c r="C170">
         <v>12</v>
       </c>
-      <c r="D170">
-        <v>5</v>
+      <c r="D170" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E170">
         <v>5</v>
@@ -6276,8 +6885,11 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H170" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6287,8 +6899,8 @@
       <c r="C171">
         <v>12</v>
       </c>
-      <c r="D171">
-        <v>2</v>
+      <c r="D171" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E171">
         <v>2</v>
@@ -6299,8 +6911,11 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6310,8 +6925,8 @@
       <c r="C172">
         <v>12</v>
       </c>
-      <c r="D172">
-        <v>5</v>
+      <c r="D172" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E172">
         <v>5</v>
@@ -6322,8 +6937,11 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6333,8 +6951,8 @@
       <c r="C173">
         <v>12</v>
       </c>
-      <c r="D173">
-        <v>5</v>
+      <c r="D173" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E173">
         <v>5</v>
@@ -6345,8 +6963,11 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H173" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6356,8 +6977,8 @@
       <c r="C174">
         <v>12</v>
       </c>
-      <c r="D174">
-        <v>5</v>
+      <c r="D174" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E174">
         <v>5</v>
@@ -6368,8 +6989,11 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H174" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6379,8 +7003,8 @@
       <c r="C175">
         <v>12</v>
       </c>
-      <c r="D175">
-        <v>5</v>
+      <c r="D175" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E175">
         <v>5</v>
@@ -6391,8 +7015,11 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H175" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6402,8 +7029,8 @@
       <c r="C176">
         <v>12</v>
       </c>
-      <c r="D176">
-        <v>3</v>
+      <c r="D176" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -6414,8 +7041,11 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H176" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6425,8 +7055,8 @@
       <c r="C177">
         <v>12</v>
       </c>
-      <c r="D177">
-        <v>4</v>
+      <c r="D177" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E177">
         <v>4</v>
@@ -6437,8 +7067,11 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H177" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6448,8 +7081,8 @@
       <c r="C178">
         <v>12</v>
       </c>
-      <c r="D178">
-        <v>2</v>
+      <c r="D178" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E178">
         <v>2</v>
@@ -6460,8 +7093,11 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H178" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6471,8 +7107,8 @@
       <c r="C179">
         <v>12</v>
       </c>
-      <c r="D179">
-        <v>5</v>
+      <c r="D179" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E179">
         <v>5</v>
@@ -6483,8 +7119,11 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H179" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -6494,8 +7133,8 @@
       <c r="C180">
         <v>12</v>
       </c>
-      <c r="D180">
-        <v>2</v>
+      <c r="D180" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -6506,8 +7145,11 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H180" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6517,8 +7159,8 @@
       <c r="C181">
         <v>12</v>
       </c>
-      <c r="D181">
-        <v>5</v>
+      <c r="D181" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E181">
         <v>5</v>
@@ -6529,8 +7171,11 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H181" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6540,8 +7185,8 @@
       <c r="C182">
         <v>12</v>
       </c>
-      <c r="D182">
-        <v>2</v>
+      <c r="D182" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E182">
         <v>2</v>
@@ -6552,8 +7197,11 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H182" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6563,8 +7211,8 @@
       <c r="C183">
         <v>12</v>
       </c>
-      <c r="D183">
-        <v>4</v>
+      <c r="D183" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E183">
         <v>4</v>
@@ -6575,8 +7223,11 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H183" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6586,8 +7237,8 @@
       <c r="C184">
         <v>12</v>
       </c>
-      <c r="D184">
-        <v>3</v>
+      <c r="D184" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -6598,8 +7249,11 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H184" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6609,8 +7263,8 @@
       <c r="C185">
         <v>12</v>
       </c>
-      <c r="D185">
-        <v>5</v>
+      <c r="D185" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E185">
         <v>5</v>
@@ -6621,8 +7275,11 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H185" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6632,8 +7289,8 @@
       <c r="C186">
         <v>12</v>
       </c>
-      <c r="D186">
-        <v>3</v>
+      <c r="D186" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E186">
         <v>3</v>
@@ -6644,8 +7301,11 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H186" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6655,8 +7315,8 @@
       <c r="C187">
         <v>12</v>
       </c>
-      <c r="D187">
-        <v>5</v>
+      <c r="D187" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E187">
         <v>5</v>
@@ -6667,8 +7327,11 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H187" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6678,8 +7341,8 @@
       <c r="C188">
         <v>12</v>
       </c>
-      <c r="D188">
-        <v>3</v>
+      <c r="D188" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E188">
         <v>3</v>
@@ -6690,8 +7353,11 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H188" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6701,8 +7367,8 @@
       <c r="C189">
         <v>12</v>
       </c>
-      <c r="D189">
-        <v>5</v>
+      <c r="D189" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E189">
         <v>5</v>
@@ -6713,8 +7379,11 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H189" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6724,8 +7393,8 @@
       <c r="C190">
         <v>12</v>
       </c>
-      <c r="D190">
-        <v>2</v>
+      <c r="D190" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E190">
         <v>2</v>
@@ -6736,8 +7405,11 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H190" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6747,8 +7419,8 @@
       <c r="C191">
         <v>12</v>
       </c>
-      <c r="D191">
-        <v>5</v>
+      <c r="D191" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E191">
         <v>5</v>
@@ -6759,8 +7431,11 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H191" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6770,8 +7445,8 @@
       <c r="C192">
         <v>12</v>
       </c>
-      <c r="D192">
-        <v>3</v>
+      <c r="D192" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E192">
         <v>3</v>
@@ -6782,8 +7457,11 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H192" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6793,8 +7471,8 @@
       <c r="C193">
         <v>12</v>
       </c>
-      <c r="D193">
-        <v>2</v>
+      <c r="D193" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E193">
         <v>2</v>
@@ -6805,8 +7483,11 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H193" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6816,8 +7497,8 @@
       <c r="C194">
         <v>12</v>
       </c>
-      <c r="D194">
-        <v>3</v>
+      <c r="D194" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -6828,8 +7509,11 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H194" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6839,8 +7523,8 @@
       <c r="C195">
         <v>12</v>
       </c>
-      <c r="D195">
-        <v>5</v>
+      <c r="D195" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E195">
         <v>5</v>
@@ -6851,8 +7535,11 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H195" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6862,8 +7549,8 @@
       <c r="C196">
         <v>12</v>
       </c>
-      <c r="D196">
-        <v>3</v>
+      <c r="D196" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E196">
         <v>3</v>
@@ -6874,8 +7561,11 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6885,8 +7575,8 @@
       <c r="C197">
         <v>12</v>
       </c>
-      <c r="D197">
-        <v>5</v>
+      <c r="D197" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E197">
         <v>5</v>
@@ -6897,8 +7587,11 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H197" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6908,8 +7601,8 @@
       <c r="C198">
         <v>12</v>
       </c>
-      <c r="D198">
-        <v>4</v>
+      <c r="D198" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E198">
         <v>4</v>
@@ -6920,8 +7613,11 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H198" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6943,8 +7639,11 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H199" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -6966,8 +7665,11 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H200" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -6989,8 +7691,11 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H201" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>1</v>
       </c>
@@ -7012,8 +7717,11 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H202" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -7035,8 +7743,11 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H203" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>1</v>
       </c>
@@ -7046,8 +7757,8 @@
       <c r="C204">
         <v>12</v>
       </c>
-      <c r="D204">
-        <v>5</v>
+      <c r="D204" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E204">
         <v>5</v>
@@ -7058,8 +7769,11 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H204" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>1</v>
       </c>
@@ -7069,8 +7783,8 @@
       <c r="C205">
         <v>12</v>
       </c>
-      <c r="D205">
-        <v>5</v>
+      <c r="D205" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E205">
         <v>5</v>
@@ -7081,8 +7795,11 @@
       <c r="G205">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H205" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -7092,8 +7809,8 @@
       <c r="C206">
         <v>12</v>
       </c>
-      <c r="D206">
-        <v>2</v>
+      <c r="D206" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -7104,8 +7821,11 @@
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H206" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>1</v>
       </c>
@@ -7115,8 +7835,8 @@
       <c r="C207">
         <v>12</v>
       </c>
-      <c r="D207">
-        <v>3</v>
+      <c r="D207" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -7127,8 +7847,11 @@
       <c r="G207">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H207" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>1</v>
       </c>
@@ -7150,8 +7873,11 @@
       <c r="G208">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H208" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>1</v>
       </c>
@@ -7173,8 +7899,11 @@
       <c r="G209">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H209" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>1</v>
       </c>
@@ -7196,8 +7925,11 @@
       <c r="G210">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H210" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>1</v>
       </c>
@@ -7219,8 +7951,11 @@
       <c r="G211">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H211" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -7242,8 +7977,11 @@
       <c r="G212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H212" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>1</v>
       </c>
@@ -7265,8 +8003,11 @@
       <c r="G213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H213" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7288,8 +8029,11 @@
       <c r="G214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H214" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -7311,8 +8055,11 @@
       <c r="G215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H215" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>1</v>
       </c>
@@ -7334,8 +8081,11 @@
       <c r="G216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H216" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>1</v>
       </c>
@@ -7345,8 +8095,8 @@
       <c r="C217">
         <v>12</v>
       </c>
-      <c r="D217">
-        <v>5</v>
+      <c r="D217" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E217">
         <v>5</v>
@@ -7357,8 +8107,11 @@
       <c r="G217">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H217" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -7368,8 +8121,8 @@
       <c r="C218">
         <v>12</v>
       </c>
-      <c r="D218">
-        <v>5</v>
+      <c r="D218" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E218">
         <v>5</v>
@@ -7380,8 +8133,11 @@
       <c r="G218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H218" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7403,8 +8159,11 @@
       <c r="G219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H219" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>1</v>
       </c>
@@ -7426,8 +8185,11 @@
       <c r="G220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H220" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>278</v>
       </c>
@@ -7437,8 +8199,8 @@
       <c r="C221">
         <v>12</v>
       </c>
-      <c r="D221">
-        <v>5</v>
+      <c r="D221" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E221">
         <v>5</v>
@@ -7449,8 +8211,11 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H221" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>2</v>
       </c>
@@ -7472,8 +8237,11 @@
       <c r="G222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H222" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>2</v>
       </c>
@@ -7495,8 +8263,11 @@
       <c r="G223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H223" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>2</v>
       </c>
@@ -7518,8 +8289,11 @@
       <c r="G224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H224" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -7541,8 +8315,11 @@
       <c r="G225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H225" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>2</v>
       </c>
@@ -7564,8 +8341,11 @@
       <c r="G226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H226" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>2</v>
       </c>
@@ -7575,8 +8355,8 @@
       <c r="C227">
         <v>12</v>
       </c>
-      <c r="D227">
-        <v>5</v>
+      <c r="D227" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E227">
         <v>5</v>
@@ -7587,8 +8367,11 @@
       <c r="G227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H227" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>2</v>
       </c>
@@ -7598,8 +8381,8 @@
       <c r="C228">
         <v>12</v>
       </c>
-      <c r="D228">
-        <v>5</v>
+      <c r="D228" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E228">
         <v>5</v>
@@ -7610,8 +8393,11 @@
       <c r="G228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H228" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>2</v>
       </c>
@@ -7621,8 +8407,8 @@
       <c r="C229">
         <v>12</v>
       </c>
-      <c r="D229">
-        <v>5</v>
+      <c r="D229" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E229">
         <v>5</v>
@@ -7633,8 +8419,11 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H229" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>2</v>
       </c>
@@ -7644,8 +8433,8 @@
       <c r="C230">
         <v>12</v>
       </c>
-      <c r="D230">
-        <v>5</v>
+      <c r="D230" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E230">
         <v>5</v>
@@ -7656,8 +8445,11 @@
       <c r="G230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H230" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -7667,8 +8459,8 @@
       <c r="C231">
         <v>12</v>
       </c>
-      <c r="D231">
-        <v>5</v>
+      <c r="D231" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E231">
         <v>5</v>
@@ -7679,8 +8471,11 @@
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H231" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>2</v>
       </c>
@@ -7690,8 +8485,8 @@
       <c r="C232">
         <v>12</v>
       </c>
-      <c r="D232">
-        <v>5</v>
+      <c r="D232" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E232">
         <v>5</v>
@@ -7702,8 +8497,11 @@
       <c r="G232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H232" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>2</v>
       </c>
@@ -7713,8 +8511,8 @@
       <c r="C233">
         <v>12</v>
       </c>
-      <c r="D233">
-        <v>5</v>
+      <c r="D233" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E233">
         <v>5</v>
@@ -7725,8 +8523,11 @@
       <c r="G233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H233" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>2</v>
       </c>
@@ -7736,8 +8537,8 @@
       <c r="C234">
         <v>12</v>
       </c>
-      <c r="D234">
-        <v>5</v>
+      <c r="D234" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E234">
         <v>5</v>
@@ -7748,8 +8549,11 @@
       <c r="G234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H234" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>2</v>
       </c>
@@ -7771,8 +8575,11 @@
       <c r="G235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H235" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>2</v>
       </c>
@@ -7782,8 +8589,8 @@
       <c r="C236">
         <v>12</v>
       </c>
-      <c r="D236">
-        <v>2</v>
+      <c r="D236" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -7794,8 +8601,11 @@
       <c r="G236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H236" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -7805,8 +8615,8 @@
       <c r="C237">
         <v>12</v>
       </c>
-      <c r="D237">
-        <v>5</v>
+      <c r="D237" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -7817,8 +8627,11 @@
       <c r="G237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H237" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>2</v>
       </c>
@@ -7828,8 +8641,8 @@
       <c r="C238">
         <v>12</v>
       </c>
-      <c r="D238">
-        <v>5</v>
+      <c r="D238" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E238">
         <v>5</v>
@@ -7840,8 +8653,11 @@
       <c r="G238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H238" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>2</v>
       </c>
@@ -7863,8 +8679,11 @@
       <c r="G239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H239" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>275</v>
       </c>
@@ -7874,8 +8693,8 @@
       <c r="C240">
         <v>12</v>
       </c>
-      <c r="D240">
-        <v>5</v>
+      <c r="D240" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E240">
         <v>5</v>
@@ -7886,8 +8705,11 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H240" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>275</v>
       </c>
@@ -7909,8 +8731,11 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H241" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3</v>
       </c>
@@ -7932,8 +8757,11 @@
       <c r="G242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H242" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3</v>
       </c>
@@ -7955,8 +8783,11 @@
       <c r="G243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H243" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3</v>
       </c>
@@ -7978,8 +8809,11 @@
       <c r="G244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H244" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3</v>
       </c>
@@ -8001,8 +8835,11 @@
       <c r="G245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H245" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3</v>
       </c>
@@ -8012,8 +8849,8 @@
       <c r="C246">
         <v>12</v>
       </c>
-      <c r="D246">
-        <v>5</v>
+      <c r="D246" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E246">
         <v>5</v>
@@ -8024,8 +8861,11 @@
       <c r="G246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H246" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -8035,8 +8875,8 @@
       <c r="C247">
         <v>12</v>
       </c>
-      <c r="D247">
-        <v>5</v>
+      <c r="D247" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E247">
         <v>5</v>
@@ -8047,8 +8887,11 @@
       <c r="G247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H247" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3</v>
       </c>
@@ -8058,8 +8901,8 @@
       <c r="C248">
         <v>12</v>
       </c>
-      <c r="D248">
-        <v>5</v>
+      <c r="D248" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E248">
         <v>5</v>
@@ -8070,8 +8913,11 @@
       <c r="G248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H248" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3</v>
       </c>
@@ -8081,8 +8927,8 @@
       <c r="C249">
         <v>12</v>
       </c>
-      <c r="D249">
-        <v>5</v>
+      <c r="D249" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E249">
         <v>5</v>
@@ -8093,8 +8939,11 @@
       <c r="G249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H249" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -8104,8 +8953,8 @@
       <c r="C250">
         <v>12</v>
       </c>
-      <c r="D250">
-        <v>5</v>
+      <c r="D250" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E250">
         <v>5</v>
@@ -8116,8 +8965,11 @@
       <c r="G250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H250" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3</v>
       </c>
@@ -8127,8 +8979,8 @@
       <c r="C251">
         <v>12</v>
       </c>
-      <c r="D251">
-        <v>5</v>
+      <c r="D251" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E251">
         <v>5</v>
@@ -8139,8 +8991,11 @@
       <c r="G251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H251" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3</v>
       </c>
@@ -8150,8 +9005,8 @@
       <c r="C252">
         <v>12</v>
       </c>
-      <c r="D252">
-        <v>5</v>
+      <c r="D252" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E252">
         <v>5</v>
@@ -8162,8 +9017,11 @@
       <c r="G252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H252" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3</v>
       </c>
@@ -8173,8 +9031,8 @@
       <c r="C253">
         <v>12</v>
       </c>
-      <c r="D253">
-        <v>5</v>
+      <c r="D253" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E253">
         <v>5</v>
@@ -8185,8 +9043,11 @@
       <c r="G253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H253" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3</v>
       </c>
@@ -8196,8 +9057,8 @@
       <c r="C254">
         <v>12</v>
       </c>
-      <c r="D254">
-        <v>5</v>
+      <c r="D254" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E254">
         <v>5</v>
@@ -8208,8 +9069,11 @@
       <c r="G254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H254" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3</v>
       </c>
@@ -8219,8 +9083,8 @@
       <c r="C255">
         <v>12</v>
       </c>
-      <c r="D255">
-        <v>5</v>
+      <c r="D255" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E255">
         <v>5</v>
@@ -8231,8 +9095,11 @@
       <c r="G255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H255" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3</v>
       </c>
@@ -8242,8 +9109,8 @@
       <c r="C256">
         <v>12</v>
       </c>
-      <c r="D256">
-        <v>5</v>
+      <c r="D256" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E256">
         <v>5</v>
@@ -8254,8 +9121,11 @@
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H256" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3</v>
       </c>
@@ -8277,8 +9147,11 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H257" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>4</v>
       </c>
@@ -8300,8 +9173,11 @@
       <c r="G258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H258" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>4</v>
       </c>
@@ -8323,8 +9199,11 @@
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H259" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>4</v>
       </c>
@@ -8346,8 +9225,11 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H260" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>4</v>
       </c>
@@ -8369,8 +9251,11 @@
       <c r="G261">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H261" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>4</v>
       </c>
@@ -8380,8 +9265,8 @@
       <c r="C262">
         <v>12</v>
       </c>
-      <c r="D262">
-        <v>5</v>
+      <c r="D262" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E262">
         <v>5</v>
@@ -8392,8 +9277,11 @@
       <c r="G262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H262" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4</v>
       </c>
@@ -8403,8 +9291,8 @@
       <c r="C263">
         <v>12</v>
       </c>
-      <c r="D263">
-        <v>5</v>
+      <c r="D263" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E263">
         <v>5</v>
@@ -8415,8 +9303,11 @@
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H263" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>4</v>
       </c>
@@ -8426,8 +9317,8 @@
       <c r="C264">
         <v>12</v>
       </c>
-      <c r="D264">
-        <v>5</v>
+      <c r="D264" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E264">
         <v>5</v>
@@ -8438,8 +9329,11 @@
       <c r="G264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H264" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>4</v>
       </c>
@@ -8449,8 +9343,8 @@
       <c r="C265">
         <v>12</v>
       </c>
-      <c r="D265">
-        <v>5</v>
+      <c r="D265" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E265">
         <v>5</v>
@@ -8461,8 +9355,11 @@
       <c r="G265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H265" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>4</v>
       </c>
@@ -8472,8 +9369,8 @@
       <c r="C266">
         <v>12</v>
       </c>
-      <c r="D266">
-        <v>5</v>
+      <c r="D266" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E266">
         <v>5</v>
@@ -8484,8 +9381,11 @@
       <c r="G266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H266" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>4</v>
       </c>
@@ -8495,8 +9395,8 @@
       <c r="C267">
         <v>12</v>
       </c>
-      <c r="D267">
-        <v>5</v>
+      <c r="D267" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E267">
         <v>5</v>
@@ -8507,8 +9407,11 @@
       <c r="G267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H267" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>4</v>
       </c>
@@ -8530,8 +9433,11 @@
       <c r="G268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H268" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>5</v>
       </c>
@@ -8553,8 +9459,11 @@
       <c r="G269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H269" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>5</v>
       </c>
@@ -8576,8 +9485,11 @@
       <c r="G270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H270" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>5</v>
       </c>
@@ -8599,8 +9511,11 @@
       <c r="G271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H271" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>5</v>
       </c>
@@ -8622,8 +9537,11 @@
       <c r="G272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H272" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>5</v>
       </c>
@@ -8633,8 +9551,8 @@
       <c r="C273">
         <v>12</v>
       </c>
-      <c r="D273">
-        <v>5</v>
+      <c r="D273" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -8645,8 +9563,11 @@
       <c r="G273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H273" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>5</v>
       </c>
@@ -8668,8 +9589,11 @@
       <c r="G274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H274" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>5</v>
       </c>
@@ -8691,8 +9615,11 @@
       <c r="G275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H275" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>5</v>
       </c>
@@ -8714,8 +9641,11 @@
       <c r="G276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H276" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>5</v>
       </c>
@@ -8737,8 +9667,11 @@
       <c r="G277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H277" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>5</v>
       </c>
@@ -8760,8 +9693,11 @@
       <c r="G278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H278" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>5</v>
       </c>
@@ -8783,8 +9719,11 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H279" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>5</v>
       </c>
@@ -8806,8 +9745,11 @@
       <c r="G280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H280" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>5</v>
       </c>
@@ -8817,8 +9759,8 @@
       <c r="C281">
         <v>12</v>
       </c>
-      <c r="D281">
-        <v>5</v>
+      <c r="D281" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E281">
         <v>5</v>
@@ -8829,8 +9771,11 @@
       <c r="G281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H281" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>5</v>
       </c>
@@ -8840,8 +9785,8 @@
       <c r="C282">
         <v>12</v>
       </c>
-      <c r="D282">
-        <v>5</v>
+      <c r="D282" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E282">
         <v>5</v>
@@ -8852,8 +9797,11 @@
       <c r="G282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H282" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>5</v>
       </c>
@@ -8863,8 +9811,8 @@
       <c r="C283">
         <v>12</v>
       </c>
-      <c r="D283">
-        <v>5</v>
+      <c r="D283" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E283">
         <v>5</v>
@@ -8875,8 +9823,11 @@
       <c r="G283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H283" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>5</v>
       </c>
@@ -8886,8 +9837,8 @@
       <c r="C284">
         <v>12</v>
       </c>
-      <c r="D284">
-        <v>5</v>
+      <c r="D284" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E284">
         <v>5</v>
@@ -8898,8 +9849,11 @@
       <c r="G284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H284" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>5</v>
       </c>
@@ -8909,8 +9863,8 @@
       <c r="C285">
         <v>12</v>
       </c>
-      <c r="D285">
-        <v>5</v>
+      <c r="D285" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E285">
         <v>5</v>
@@ -8921,8 +9875,11 @@
       <c r="G285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H285" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>5</v>
       </c>
@@ -8932,8 +9889,8 @@
       <c r="C286">
         <v>12</v>
       </c>
-      <c r="D286">
-        <v>2</v>
+      <c r="D286" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E286">
         <v>2</v>
@@ -8944,8 +9901,11 @@
       <c r="G286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H286" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>5</v>
       </c>
@@ -8955,8 +9915,8 @@
       <c r="C287">
         <v>12</v>
       </c>
-      <c r="D287">
-        <v>3</v>
+      <c r="D287" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E287">
         <v>3</v>
@@ -8967,8 +9927,11 @@
       <c r="G287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H287" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>5</v>
       </c>
@@ -8978,8 +9941,8 @@
       <c r="C288">
         <v>12</v>
       </c>
-      <c r="D288">
-        <v>4</v>
+      <c r="D288" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E288">
         <v>4</v>
@@ -8990,8 +9953,11 @@
       <c r="G288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H288" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>5</v>
       </c>
@@ -9001,8 +9967,8 @@
       <c r="C289">
         <v>12</v>
       </c>
-      <c r="D289">
-        <v>3</v>
+      <c r="D289" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E289">
         <v>3</v>
@@ -9013,8 +9979,11 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H289" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>5</v>
       </c>
@@ -9024,8 +9993,8 @@
       <c r="C290">
         <v>12</v>
       </c>
-      <c r="D290">
-        <v>4</v>
+      <c r="D290" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E290">
         <v>4</v>
@@ -9036,8 +10005,11 @@
       <c r="G290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H290" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>5</v>
       </c>
@@ -9047,8 +10019,8 @@
       <c r="C291">
         <v>12</v>
       </c>
-      <c r="D291">
-        <v>3</v>
+      <c r="D291" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E291">
         <v>3</v>
@@ -9059,8 +10031,11 @@
       <c r="G291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H291" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>5</v>
       </c>
@@ -9070,8 +10045,8 @@
       <c r="C292">
         <v>12</v>
       </c>
-      <c r="D292">
-        <v>3</v>
+      <c r="D292" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E292">
         <v>3</v>
@@ -9082,8 +10057,11 @@
       <c r="G292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H292" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>5</v>
       </c>
@@ -9093,8 +10071,8 @@
       <c r="C293">
         <v>12</v>
       </c>
-      <c r="D293">
-        <v>4</v>
+      <c r="D293" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E293">
         <v>4</v>
@@ -9105,8 +10083,11 @@
       <c r="G293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H293" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>5</v>
       </c>
@@ -9116,8 +10097,8 @@
       <c r="C294">
         <v>12</v>
       </c>
-      <c r="D294">
-        <v>2</v>
+      <c r="D294" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E294">
         <v>2</v>
@@ -9128,8 +10109,11 @@
       <c r="G294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H294" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>5</v>
       </c>
@@ -9139,8 +10123,8 @@
       <c r="C295">
         <v>12</v>
       </c>
-      <c r="D295">
-        <v>5</v>
+      <c r="D295" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E295">
         <v>5</v>
@@ -9151,8 +10135,11 @@
       <c r="G295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H295" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>5</v>
       </c>
@@ -9162,8 +10149,8 @@
       <c r="C296">
         <v>12</v>
       </c>
-      <c r="D296">
-        <v>5</v>
+      <c r="D296" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E296">
         <v>5</v>
@@ -9174,8 +10161,11 @@
       <c r="G296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H296" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>5</v>
       </c>
@@ -9185,8 +10175,8 @@
       <c r="C297">
         <v>12</v>
       </c>
-      <c r="D297">
-        <v>4</v>
+      <c r="D297" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E297">
         <v>4</v>
@@ -9197,8 +10187,11 @@
       <c r="G297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H297" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>5</v>
       </c>
@@ -9208,8 +10201,8 @@
       <c r="C298">
         <v>12</v>
       </c>
-      <c r="D298">
-        <v>5</v>
+      <c r="D298" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E298">
         <v>5</v>
@@ -9220,8 +10213,11 @@
       <c r="G298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H298" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>5</v>
       </c>
@@ -9231,8 +10227,8 @@
       <c r="C299">
         <v>12</v>
       </c>
-      <c r="D299">
-        <v>2</v>
+      <c r="D299" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E299">
         <v>2</v>
@@ -9243,8 +10239,11 @@
       <c r="G299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H299" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>5</v>
       </c>
@@ -9254,8 +10253,8 @@
       <c r="C300">
         <v>12</v>
       </c>
-      <c r="D300">
-        <v>4</v>
+      <c r="D300" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E300">
         <v>4</v>
@@ -9266,8 +10265,11 @@
       <c r="G300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H300" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>5</v>
       </c>
@@ -9277,8 +10279,8 @@
       <c r="C301">
         <v>12</v>
       </c>
-      <c r="D301">
-        <v>5</v>
+      <c r="D301" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E301">
         <v>5</v>
@@ -9289,8 +10291,11 @@
       <c r="G301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>5</v>
       </c>
@@ -9300,8 +10305,8 @@
       <c r="C302">
         <v>12</v>
       </c>
-      <c r="D302">
-        <v>2</v>
+      <c r="D302" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E302">
         <v>2</v>
@@ -9312,8 +10317,11 @@
       <c r="G302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H302" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>5</v>
       </c>
@@ -9323,8 +10331,8 @@
       <c r="C303">
         <v>12</v>
       </c>
-      <c r="D303">
-        <v>4</v>
+      <c r="D303" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E303">
         <v>4</v>
@@ -9335,8 +10343,11 @@
       <c r="G303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H303" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>5</v>
       </c>
@@ -9346,8 +10357,8 @@
       <c r="C304">
         <v>12</v>
       </c>
-      <c r="D304">
-        <v>5</v>
+      <c r="D304" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E304">
         <v>5</v>
@@ -9358,8 +10369,11 @@
       <c r="G304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H304" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>5</v>
       </c>
@@ -9369,8 +10383,8 @@
       <c r="C305">
         <v>12</v>
       </c>
-      <c r="D305">
-        <v>5</v>
+      <c r="D305" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E305">
         <v>5</v>
@@ -9381,8 +10395,11 @@
       <c r="G305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>5</v>
       </c>
@@ -9392,8 +10409,8 @@
       <c r="C306">
         <v>12</v>
       </c>
-      <c r="D306">
-        <v>2</v>
+      <c r="D306" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E306">
         <v>2</v>
@@ -9404,8 +10421,11 @@
       <c r="G306">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H306" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>5</v>
       </c>
@@ -9415,8 +10435,8 @@
       <c r="C307">
         <v>12</v>
       </c>
-      <c r="D307">
-        <v>5</v>
+      <c r="D307" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E307">
         <v>5</v>
@@ -9427,8 +10447,11 @@
       <c r="G307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H307" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>5</v>
       </c>
@@ -9449,6 +10472,9 @@
       </c>
       <c r="G308">
         <v>0</v>
+      </c>
+      <c r="H308" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
